--- a/Guil/Data_Predictive_Models.xlsx
+++ b/Guil/Data_Predictive_Models.xlsx
@@ -5,23 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\HOME\Guil\new_data\newproject\Guil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB07E1C-2880-498A-9B2B-CF1254862659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F48C4F6-BC03-4C40-919A-0E1248FD2FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B1168600-7911-4E02-BD18-5C2A326D5154}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{B1168600-7911-4E02-BD18-5C2A326D5154}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Predictive_Models" sheetId="1" r:id="rId1"/>
+    <sheet name="Compiled_Data (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="res" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Layer">OFFSET([1]Aux!$E$2,0,0,COUNTA([1]Aux!$E:$E)-1,1)</definedName>
-    <definedName name="Level">OFFSET([1]Aux!$C$2,0,0,COUNTA([1]Aux!$C:$C)-1,1)</definedName>
-    <definedName name="Variable">OFFSET([1]Aux!$A$2,0,0,COUNTA([1]Aux!$A:$A)-1,1)</definedName>
+    <definedName name="Layer" localSheetId="1">OFFSET([1]Aux!$E$2,0,0,COUNTA([1]Aux!$E:$E)-1,1)</definedName>
+    <definedName name="Layer">OFFSET([2]Aux!$E$2,0,0,COUNTA([2]Aux!$E:$E)-1,1)</definedName>
+    <definedName name="Level" localSheetId="1">OFFSET([1]Aux!$C$2,0,0,COUNTA([1]Aux!$C:$C)-1,1)</definedName>
+    <definedName name="Level">OFFSET([2]Aux!$C$2,0,0,COUNTA([2]Aux!$C:$C)-1,1)</definedName>
+    <definedName name="Variable" localSheetId="1">OFFSET([1]Aux!$A$2,0,0,COUNTA([1]Aux!$A:$A)-1,1)</definedName>
+    <definedName name="Variable">OFFSET([2]Aux!$A$2,0,0,COUNTA([2]Aux!$A:$A)-1,1)</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t>Month</t>
   </si>
@@ -159,6 +165,18 @@
   <si>
     <t>AR</t>
   </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>R_squared</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
 </sst>
 </file>
 
@@ -171,7 +189,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +229,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,8 +280,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -264,14 +295,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,11 +393,75 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Moeda 2" xfId="3" xr:uid="{C9C7CDF4-99B5-4477-AF46-886F5B84FFF0}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 4" xfId="1" xr:uid="{0502BB4A-9C13-4A7B-B718-A8672F9F26AE}"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
     <cellStyle name="Vírgula 2" xfId="2" xr:uid="{449EED40-652A-4BAF-8787-6FC01085E026}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,8 +486,7 @@
     <sheetNames>
       <sheetName val="Data_Collection"/>
       <sheetName val="Aux"/>
-      <sheetName val="Compiled_Data_Bootstrap"/>
-      <sheetName val="Compiled_Data_Bootstrap (2)"/>
+      <sheetName val="Compiled_Data (2)"/>
       <sheetName val="Compiled_Data"/>
       <sheetName val="Turnover_NewHires"/>
       <sheetName val="Breakdown"/>
@@ -392,7 +503,63 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Variable</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Level</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Layer</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Nominal</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>People</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Leading</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Continuous</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Material</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Lagging</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Discrete</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Equipment</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Growth</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Percentage</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Information</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Sustainability</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -407,7 +574,108 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Data_Collection"/>
+      <sheetName val="Aux"/>
+      <sheetName val="Compiled_Data (2)"/>
+      <sheetName val="Compiled_Data"/>
+      <sheetName val="Turnover_NewHires"/>
+      <sheetName val="Breakdown"/>
+      <sheetName val="Maintenance"/>
+      <sheetName val="Rework"/>
+      <sheetName val="Absenteeism"/>
+      <sheetName val="OverTime"/>
+      <sheetName val="PartsCost"/>
+      <sheetName val="WIP"/>
+      <sheetName val="Shipping"/>
+      <sheetName val="Sales_Price_Cost_DelTime"/>
+      <sheetName val="Sales_Cust"/>
+      <sheetName val="RMA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Variable</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Level</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Layer</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Nominal</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>People</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Leading</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Continuous</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Material</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Lagging</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Discrete</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Equipment</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Growth</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Percentage</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Information</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Sustainability</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -712,11 +980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AE6A1B-B439-434D-BE19-09FC5BD7BCA6}">
   <dimension ref="A1:AM217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G51"/>
+      <selection pane="bottomRight" activeCell="Y2" sqref="Y2:Z51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9798,6 +10066,8298 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02041B66-C3B8-4228-9CF3-AEAAAA75D4AF}">
+  <dimension ref="A1:AN217"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AK1" sqref="AK1:AM1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.42578125" style="23" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="24" customWidth="1"/>
+    <col min="7" max="39" width="10.7109375" style="9" customWidth="1"/>
+    <col min="40" max="40" width="9.7109375" style="9" customWidth="1"/>
+    <col min="41" max="16384" width="8.7109375" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" s="34" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="33"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>43466</v>
+      </c>
+      <c r="B2" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>16076.83</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="11">
+        <v>216</v>
+      </c>
+      <c r="F2" s="11">
+        <v>58</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="11">
+        <v>182.51</v>
+      </c>
+      <c r="K2" s="11">
+        <v>4503</v>
+      </c>
+      <c r="L2" s="11">
+        <v>51.123249299719888</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="11">
+        <v>368.07333333333332</v>
+      </c>
+      <c r="O2" s="11">
+        <v>6.3958916900093374</v>
+      </c>
+      <c r="P2" s="11">
+        <v>4453.7422969187674</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>2942.0612000000006</v>
+      </c>
+      <c r="R2" s="11">
+        <v>1.1478717422669134</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0.27463619065899614</v>
+      </c>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35">
+        <v>1071257.6492342302</v>
+      </c>
+      <c r="AA2" s="35">
+        <v>728455.20147927653</v>
+      </c>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="11">
+        <v>1080</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>290</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>1370</v>
+      </c>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="11">
+        <v>71</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>79</v>
+      </c>
+      <c r="AK2" s="12">
+        <v>34</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="12">
+        <v>10</v>
+      </c>
+      <c r="AN2" s="13"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>43497</v>
+      </c>
+      <c r="B3" s="46">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>16345.900000000001</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="11">
+        <v>242</v>
+      </c>
+      <c r="F3" s="11">
+        <v>68</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="11">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="K3" s="11">
+        <v>4578.6834733893565</v>
+      </c>
+      <c r="L3" s="11">
+        <v>9.4873949579831933</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="11">
+        <v>416.43333333333334</v>
+      </c>
+      <c r="O3" s="11">
+        <v>7.2362278244631186</v>
+      </c>
+      <c r="P3" s="11">
+        <v>4632.9887955182076</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>545.98439999999994</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0.20477914747303008</v>
+      </c>
+      <c r="S3" s="11">
+        <v>4.7840474207900836E-2</v>
+      </c>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35">
+        <v>1141260.426531957</v>
+      </c>
+      <c r="AA3" s="35">
+        <v>730406.67298045254</v>
+      </c>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="11">
+        <v>1210</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>340</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>1550</v>
+      </c>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="11">
+        <v>73</v>
+      </c>
+      <c r="AJ3" s="11">
+        <v>82</v>
+      </c>
+      <c r="AK3" s="12">
+        <v>28.000000000000004</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN3" s="13"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>43525</v>
+      </c>
+      <c r="B4" s="46">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11">
+        <v>17658.419999999998</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="11">
+        <v>378</v>
+      </c>
+      <c r="F4" s="11">
+        <v>120</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="11">
+        <v>592.12</v>
+      </c>
+      <c r="K4" s="11">
+        <v>4946.3361344537816</v>
+      </c>
+      <c r="L4" s="11">
+        <v>165.85994397759106</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="11">
+        <v>668.98</v>
+      </c>
+      <c r="O4" s="11">
+        <v>11.624649859943979</v>
+      </c>
+      <c r="P4" s="11">
+        <v>6509.5966386554619</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>15879.650800000001</v>
+      </c>
+      <c r="R4" s="11">
+        <v>4.2389043368850823</v>
+      </c>
+      <c r="S4" s="11">
+        <v>1.0249803718288057</v>
+      </c>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35">
+        <v>1549263.8919189228</v>
+      </c>
+      <c r="AA4" s="35">
+        <v>1332366.9470502737</v>
+      </c>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="11">
+        <v>1890</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>600</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>2490</v>
+      </c>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="11">
+        <v>70</v>
+      </c>
+      <c r="AJ4" s="11">
+        <v>83</v>
+      </c>
+      <c r="AK4" s="12">
+        <v>28.000000000000004</v>
+      </c>
+      <c r="AL4" s="12">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="12">
+        <v>5</v>
+      </c>
+      <c r="AN4" s="13"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>43556</v>
+      </c>
+      <c r="B5" s="46">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11">
+        <v>17683.93</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="11">
+        <v>406</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="11">
+        <v>1540.22</v>
+      </c>
+      <c r="K5" s="11">
+        <v>4953.481792717087</v>
+      </c>
+      <c r="L5" s="11">
+        <v>431.43417366946784</v>
+      </c>
+      <c r="M5" s="35"/>
+      <c r="N5" s="11">
+        <v>545.39333333333343</v>
+      </c>
+      <c r="O5" s="11">
+        <v>9.4771241830065378</v>
+      </c>
+      <c r="P5" s="11">
+        <v>5395.5686274509808</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>20910.864000000001</v>
+      </c>
+      <c r="R5" s="11">
+        <v>6.7344402346982539</v>
+      </c>
+      <c r="S5" s="11">
+        <v>1.4926989131985287</v>
+      </c>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35">
+        <v>1400876.2125506327</v>
+      </c>
+      <c r="AA5" s="35">
+        <v>1120700.9700405062</v>
+      </c>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="11">
+        <v>2030</v>
+      </c>
+      <c r="AD5" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>2030</v>
+      </c>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="11">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>76</v>
+      </c>
+      <c r="AK5" s="12">
+        <v>49</v>
+      </c>
+      <c r="AL5" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="12">
+        <v>6</v>
+      </c>
+      <c r="AN5" s="13"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>43586</v>
+      </c>
+      <c r="B6" s="46">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
+        <v>21552.34</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="11">
+        <v>414</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="11">
+        <v>1874.6000000000001</v>
+      </c>
+      <c r="K6" s="11">
+        <v>6037.0700280112051</v>
+      </c>
+      <c r="L6" s="11">
+        <v>525.0980392156863</v>
+      </c>
+      <c r="M6" s="35"/>
+      <c r="N6" s="11">
+        <v>556.14</v>
+      </c>
+      <c r="O6" s="11">
+        <v>9.6638655462184886</v>
+      </c>
+      <c r="P6" s="11">
+        <v>5299.7731092436979</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>27801.358000000004</v>
+      </c>
+      <c r="R6" s="11">
+        <v>9.1153947185519808</v>
+      </c>
+      <c r="S6" s="11">
+        <v>2.0928311448977186</v>
+      </c>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35">
+        <v>1328409.0342299794</v>
+      </c>
+      <c r="AA6" s="35">
+        <v>690772.69779958925</v>
+      </c>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="11">
+        <v>2070</v>
+      </c>
+      <c r="AD6" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>2070</v>
+      </c>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="11">
+        <v>65</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>82</v>
+      </c>
+      <c r="AK6" s="12">
+        <v>49</v>
+      </c>
+      <c r="AL6" s="12">
+        <v>10</v>
+      </c>
+      <c r="AM6" s="12">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="13"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>43617</v>
+      </c>
+      <c r="B7" s="46">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11">
+        <v>16620.989999999998</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="11">
+        <v>328</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="11">
+        <v>1379.5900000000001</v>
+      </c>
+      <c r="K7" s="11">
+        <v>4655.7394957983188</v>
+      </c>
+      <c r="L7" s="11">
+        <v>386.43977591036418</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="11">
+        <v>440.61333333333334</v>
+      </c>
+      <c r="O7" s="11">
+        <v>7.6563958916900097</v>
+      </c>
+      <c r="P7" s="11">
+        <v>6315.3137254901967</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>22960.360800000002</v>
+      </c>
+      <c r="R7" s="11">
+        <v>6.3175767231579263</v>
+      </c>
+      <c r="S7" s="11">
+        <v>1.4853232362479614</v>
+      </c>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35">
+        <v>1545815.7685595499</v>
+      </c>
+      <c r="AA7" s="35">
+        <v>1205736.2994764489</v>
+      </c>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="11">
+        <v>1640</v>
+      </c>
+      <c r="AD7" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>1640</v>
+      </c>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="11">
+        <v>67</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>73</v>
+      </c>
+      <c r="AK7" s="12">
+        <v>49</v>
+      </c>
+      <c r="AL7" s="12">
+        <v>11</v>
+      </c>
+      <c r="AM7" s="12">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="AN7" s="13"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43647</v>
+      </c>
+      <c r="B8" s="46">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
+        <v>20494.89</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="11">
+        <v>267</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="11">
+        <v>533.29</v>
+      </c>
+      <c r="K8" s="11">
+        <v>5740.8655462184879</v>
+      </c>
+      <c r="L8" s="11">
+        <v>149.38095238095238</v>
+      </c>
+      <c r="M8" s="35"/>
+      <c r="N8" s="11">
+        <v>358.67</v>
+      </c>
+      <c r="O8" s="11">
+        <v>6.2324929971988796</v>
+      </c>
+      <c r="P8" s="11">
+        <v>4612.9103641456586</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>7875.2647999999999</v>
+      </c>
+      <c r="R8" s="11">
+        <v>2.9665856817639451</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0.65822320338316564</v>
+      </c>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35">
+        <v>1196442.9025780852</v>
+      </c>
+      <c r="AA8" s="35">
+        <v>622150.30934060435</v>
+      </c>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="11">
+        <v>1335</v>
+      </c>
+      <c r="AD8" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>1335</v>
+      </c>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="11">
+        <v>73</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>86</v>
+      </c>
+      <c r="AK8" s="12">
+        <v>27</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>3</v>
+      </c>
+      <c r="AM8" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN8" s="13"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>43678</v>
+      </c>
+      <c r="B9" s="46">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>16428.82</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="11">
+        <v>335</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="11">
+        <v>69.13</v>
+      </c>
+      <c r="K9" s="11">
+        <v>4601.9103641456586</v>
+      </c>
+      <c r="L9" s="11">
+        <v>19.364145658263304</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="11">
+        <v>450.01666666666671</v>
+      </c>
+      <c r="O9" s="11">
+        <v>7.8197945845004675</v>
+      </c>
+      <c r="P9" s="11">
+        <v>4666.09243697479</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1114.3756000000001</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0.41499704345372623</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0.10511175915341368</v>
+      </c>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35">
+        <v>1060181.6666140431</v>
+      </c>
+      <c r="AA9" s="35">
+        <v>710321.7166314089</v>
+      </c>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="11">
+        <v>1675</v>
+      </c>
+      <c r="AD9" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>1675</v>
+      </c>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="11">
+        <v>65</v>
+      </c>
+      <c r="AJ9" s="11">
+        <v>87</v>
+      </c>
+      <c r="AK9" s="12">
+        <v>33</v>
+      </c>
+      <c r="AL9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="12">
+        <v>10</v>
+      </c>
+      <c r="AN9" s="13"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>43709</v>
+      </c>
+      <c r="B10" s="46">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11">
+        <v>15284.33</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="11">
+        <v>253</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="11">
+        <v>10.75</v>
+      </c>
+      <c r="K10" s="11">
+        <v>4281.3249299719891</v>
+      </c>
+      <c r="L10" s="11">
+        <v>3.011204481792717</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="N10" s="11">
+        <v>339.86333333333334</v>
+      </c>
+      <c r="O10" s="11">
+        <v>5.9056956115779649</v>
+      </c>
+      <c r="P10" s="11">
+        <v>4326.3529411764712</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>173.29000000000002</v>
+      </c>
+      <c r="R10" s="11">
+        <v>6.9601452371888015E-2</v>
+      </c>
+      <c r="S10" s="11">
+        <v>1.615348448119909E-2</v>
+      </c>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35">
+        <v>1072771.6376097731</v>
+      </c>
+      <c r="AA10" s="35">
+        <v>740212.42995074333</v>
+      </c>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="11">
+        <v>1265</v>
+      </c>
+      <c r="AD10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>1265</v>
+      </c>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="11">
+        <v>49</v>
+      </c>
+      <c r="AJ10" s="11">
+        <v>78</v>
+      </c>
+      <c r="AK10" s="12">
+        <v>45</v>
+      </c>
+      <c r="AL10" s="11">
+        <v>3</v>
+      </c>
+      <c r="AM10" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN10" s="13"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>43739</v>
+      </c>
+      <c r="B11" s="46">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11">
+        <v>19306.18</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="11">
+        <v>336</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="11">
+        <v>47.5</v>
+      </c>
+      <c r="K11" s="11">
+        <v>5407.8935574229699</v>
+      </c>
+      <c r="L11" s="11">
+        <v>13.305322128851541</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="11">
+        <v>451.36</v>
+      </c>
+      <c r="O11" s="11">
+        <v>7.8431372549019613</v>
+      </c>
+      <c r="P11" s="11">
+        <v>5477.2212885154067</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>765.7</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0.24292102560745599</v>
+      </c>
+      <c r="S11" s="11">
+        <v>6.4920537183429841E-2</v>
+      </c>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35">
+        <v>1179441.8734345215</v>
+      </c>
+      <c r="AA11" s="35">
+        <v>601515.35545160598</v>
+      </c>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="11">
+        <v>1680</v>
+      </c>
+      <c r="AD11" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>1680</v>
+      </c>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="11">
+        <v>67</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>79</v>
+      </c>
+      <c r="AK11" s="12">
+        <v>27</v>
+      </c>
+      <c r="AL11" s="12">
+        <v>8</v>
+      </c>
+      <c r="AM11" s="12">
+        <v>6</v>
+      </c>
+      <c r="AN11" s="13"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>43770</v>
+      </c>
+      <c r="B12" s="46">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11">
+        <v>15374.65</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="11">
+        <v>252</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="11">
+        <v>23.75</v>
+      </c>
+      <c r="K12" s="11">
+        <v>4306.6246498599439</v>
+      </c>
+      <c r="L12" s="11">
+        <v>6.6526610644257707</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="11">
+        <v>338.52000000000004</v>
+      </c>
+      <c r="O12" s="11">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="P12" s="11">
+        <v>4358.0952380952385</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>382.85</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0.15265065816536402</v>
+      </c>
+      <c r="S12" s="11">
+        <v>3.868740376796969E-2</v>
+      </c>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35">
+        <v>989598.58432519459</v>
+      </c>
+      <c r="AA12" s="35">
+        <v>742198.938243896</v>
+      </c>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="11">
+        <v>1260</v>
+      </c>
+      <c r="AD12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>1260</v>
+      </c>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="11">
+        <v>57.999999999999993</v>
+      </c>
+      <c r="AJ12" s="11">
+        <v>83</v>
+      </c>
+      <c r="AK12" s="12">
+        <v>38</v>
+      </c>
+      <c r="AL12" s="11">
+        <v>5</v>
+      </c>
+      <c r="AM12" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN12" s="13"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>43800</v>
+      </c>
+      <c r="B13" s="46">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>15115.38</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="11">
+        <v>193</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="11">
+        <v>224.78</v>
+      </c>
+      <c r="K13" s="11">
+        <v>4234</v>
+      </c>
+      <c r="L13" s="11">
+        <v>62.963585434173673</v>
+      </c>
+      <c r="M13" s="35"/>
+      <c r="N13" s="11">
+        <v>259.26333333333332</v>
+      </c>
+      <c r="O13" s="11">
+        <v>4.5051353874883286</v>
+      </c>
+      <c r="P13" s="11">
+        <v>4338.9803921568628</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>3623.4536000000003</v>
+      </c>
+      <c r="R13" s="11">
+        <v>1.4511147722166848</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0.36515284006079718</v>
+      </c>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35">
+        <v>992311.49329050898</v>
+      </c>
+      <c r="AA13" s="35">
+        <v>506078.86157815962</v>
+      </c>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="11">
+        <v>965</v>
+      </c>
+      <c r="AD13" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>965</v>
+      </c>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="11">
+        <v>62</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>74</v>
+      </c>
+      <c r="AK13" s="12">
+        <v>43</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>5</v>
+      </c>
+      <c r="AM13" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN13" s="13"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>43831</v>
+      </c>
+      <c r="B14" s="46">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
+        <v>12012.18</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="11">
+        <v>239</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="11">
+        <v>3</v>
+      </c>
+      <c r="I14" s="11">
+        <v>10</v>
+      </c>
+      <c r="J14" s="11">
+        <v>56.25</v>
+      </c>
+      <c r="K14" s="11">
+        <v>3364.7563025210088</v>
+      </c>
+      <c r="L14" s="11">
+        <v>15.756302521008404</v>
+      </c>
+      <c r="M14" s="35"/>
+      <c r="N14" s="11">
+        <v>321.05666666666673</v>
+      </c>
+      <c r="O14" s="11">
+        <v>5.5788982259570501</v>
+      </c>
+      <c r="P14" s="11">
+        <v>3419.7282913165268</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>906.75</v>
+      </c>
+      <c r="R14" s="11">
+        <v>0.46074720500506622</v>
+      </c>
+      <c r="S14" s="11">
+        <v>0.10850144175569469</v>
+      </c>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="11">
+        <v>2361.1999999999998</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>1223.72</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>835703.18083115167</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>526493.00392362557</v>
+      </c>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="11">
+        <v>1195</v>
+      </c>
+      <c r="AD14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>1195</v>
+      </c>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="11">
+        <v>65</v>
+      </c>
+      <c r="AJ14" s="11">
+        <v>77</v>
+      </c>
+      <c r="AK14" s="12">
+        <v>39</v>
+      </c>
+      <c r="AL14" s="11">
+        <v>3</v>
+      </c>
+      <c r="AM14" s="12">
+        <v>12</v>
+      </c>
+      <c r="AN14" s="13"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B15" s="46">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>14833.45</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="11">
+        <v>219</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="11">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11">
+        <v>5</v>
+      </c>
+      <c r="J15" s="11">
+        <v>113.80000000000001</v>
+      </c>
+      <c r="K15" s="11">
+        <v>4155.028011204482</v>
+      </c>
+      <c r="L15" s="11">
+        <v>31.876750700280116</v>
+      </c>
+      <c r="M15" s="35"/>
+      <c r="N15" s="11">
+        <v>294.19</v>
+      </c>
+      <c r="O15" s="11">
+        <v>5.1120448179271714</v>
+      </c>
+      <c r="P15" s="11">
+        <v>5395.6078431372553</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>5320.4060000000009</v>
+      </c>
+      <c r="R15" s="11">
+        <v>1.7134488472831932</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0.43789469979886725</v>
+      </c>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="11">
+        <v>2957.65</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>3838.9000000000005</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>1214996.6652813468</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>765447.89912724844</v>
+      </c>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="11">
+        <v>1095</v>
+      </c>
+      <c r="AD15" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>1095</v>
+      </c>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="11">
+        <v>56.000000000000007</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>84</v>
+      </c>
+      <c r="AK15" s="12">
+        <v>30</v>
+      </c>
+      <c r="AL15" s="12">
+        <v>11</v>
+      </c>
+      <c r="AM15" s="12">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="AN15" s="13"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>43891</v>
+      </c>
+      <c r="B16" s="46">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11">
+        <v>15756.57</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="11">
+        <v>222</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="11">
+        <v>24</v>
+      </c>
+      <c r="I16" s="11">
+        <v>4</v>
+      </c>
+      <c r="J16" s="11">
+        <v>890.18000000000006</v>
+      </c>
+      <c r="K16" s="11">
+        <v>4413.6050420168067</v>
+      </c>
+      <c r="L16" s="11">
+        <v>249.35014005602244</v>
+      </c>
+      <c r="M16" s="35"/>
+      <c r="N16" s="11">
+        <v>296.56</v>
+      </c>
+      <c r="O16" s="11">
+        <v>5.14</v>
+      </c>
+      <c r="P16" s="11">
+        <v>4451.8235294117649</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>11468.251600000001</v>
+      </c>
+      <c r="R16" s="11">
+        <v>4.4763704295158693</v>
+      </c>
+      <c r="S16" s="11">
+        <v>1.0073302556137718</v>
+      </c>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="11">
+        <v>847.95</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>7043.0699999999988</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>1138479.8119671619</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>967707.84017208766</v>
+      </c>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="11">
+        <v>1320</v>
+      </c>
+      <c r="AD16" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>1200</v>
+      </c>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="11">
+        <v>80</v>
+      </c>
+      <c r="AJ16" s="11">
+        <v>81</v>
+      </c>
+      <c r="AK16" s="12">
+        <v>26</v>
+      </c>
+      <c r="AL16" s="12">
+        <v>10</v>
+      </c>
+      <c r="AM16" s="12">
+        <v>5</v>
+      </c>
+      <c r="AN16" s="13"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>43922</v>
+      </c>
+      <c r="B17" s="46">
+        <v>4</v>
+      </c>
+      <c r="C17" s="11">
+        <v>11298.94</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="11">
+        <v>221</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="11">
+        <v>26</v>
+      </c>
+      <c r="I17" s="11">
+        <v>8</v>
+      </c>
+      <c r="J17" s="11">
+        <v>37.5</v>
+      </c>
+      <c r="K17" s="11">
+        <v>3164.9691876750703</v>
+      </c>
+      <c r="L17" s="11">
+        <v>10.504201680672269</v>
+      </c>
+      <c r="M17" s="35"/>
+      <c r="N17" s="11">
+        <v>296.87666666666672</v>
+      </c>
+      <c r="O17" s="11">
+        <v>5.1587301587301591</v>
+      </c>
+      <c r="P17" s="11">
+        <v>2261.4033613445381</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>12569</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="11">
+        <v>1036.23</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>6856.86</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>400664.8900586355</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>216359.04063166317</v>
+      </c>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="11">
+        <v>1105</v>
+      </c>
+      <c r="AD17" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>1105</v>
+      </c>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="11">
+        <v>65</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>82</v>
+      </c>
+      <c r="AK17" s="12">
+        <v>44</v>
+      </c>
+      <c r="AL17" s="11">
+        <v>5</v>
+      </c>
+      <c r="AM17" s="12">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="AN17" s="13"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>43952</v>
+      </c>
+      <c r="B18" s="46">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11">
+        <v>9620.2200000000012</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="11">
+        <v>139</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="11">
+        <v>32</v>
+      </c>
+      <c r="I18" s="11">
+        <v>11</v>
+      </c>
+      <c r="J18" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="K18" s="11">
+        <v>2694.7394957983197</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1.5406162464985995</v>
+      </c>
+      <c r="M18" s="35"/>
+      <c r="N18" s="11">
+        <v>186.72333333333336</v>
+      </c>
+      <c r="O18" s="11">
+        <v>3.2446311858076569</v>
+      </c>
+      <c r="P18" s="11">
+        <v>3445.2296918767511</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>29856</v>
+      </c>
+      <c r="R18" s="11">
+        <v>5.4880413546274751E-2</v>
+      </c>
+      <c r="S18" s="11">
+        <v>1.0231330831611854E-2</v>
+      </c>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="11">
+        <v>2413.1800000000003</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>5027.3099999999986</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>1063498.0120455939</v>
+      </c>
+      <c r="AA18" s="11">
+        <v>882703.34999784303</v>
+      </c>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="11">
+        <v>695</v>
+      </c>
+      <c r="AD18" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="11">
+        <v>695</v>
+      </c>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="11">
+        <v>50</v>
+      </c>
+      <c r="AJ18" s="11">
+        <v>81</v>
+      </c>
+      <c r="AK18" s="12">
+        <v>44</v>
+      </c>
+      <c r="AL18" s="11">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="12">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="AN18" s="13"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>43983</v>
+      </c>
+      <c r="B19" s="46">
+        <v>6</v>
+      </c>
+      <c r="C19" s="11">
+        <v>12547.42</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="11">
+        <v>269</v>
+      </c>
+      <c r="F19" s="36">
+        <v>0</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="11">
+        <v>65</v>
+      </c>
+      <c r="I19" s="11">
+        <v>19</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1609.98</v>
+      </c>
+      <c r="K19" s="11">
+        <v>3514.6834733893561</v>
+      </c>
+      <c r="L19" s="11">
+        <v>450.97478991596643</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="11">
+        <v>361.35666666666668</v>
+      </c>
+      <c r="O19" s="11">
+        <v>6.2791783380018682</v>
+      </c>
+      <c r="P19" s="11">
+        <v>4355.042016806723</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>32894.149600000004</v>
+      </c>
+      <c r="R19" s="11">
+        <v>13.124811062871848</v>
+      </c>
+      <c r="S19" s="11">
+        <v>2.6065053666715241</v>
+      </c>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="11">
+        <v>4323.0599999999995</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>10184.279999999995</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>1262001.9901207967</v>
+      </c>
+      <c r="AA19" s="11">
+        <v>1060081.6717014692</v>
+      </c>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="11">
+        <v>1345</v>
+      </c>
+      <c r="AD19" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>1345</v>
+      </c>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="11">
+        <v>69</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>81</v>
+      </c>
+      <c r="AK19" s="12">
+        <v>36</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>3</v>
+      </c>
+      <c r="AM19" s="12">
+        <v>9</v>
+      </c>
+      <c r="AN19" s="13"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>44013</v>
+      </c>
+      <c r="B20" s="46">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11">
+        <v>18121.75</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="11">
+        <v>376</v>
+      </c>
+      <c r="F20" s="36">
+        <v>0</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="11">
+        <v>49</v>
+      </c>
+      <c r="I20" s="11">
+        <v>6</v>
+      </c>
+      <c r="J20" s="11">
+        <v>2749.35</v>
+      </c>
+      <c r="K20" s="11">
+        <v>5076.120448179272</v>
+      </c>
+      <c r="L20" s="11">
+        <v>770.1260504201681</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="11">
+        <v>505.09333333333336</v>
+      </c>
+      <c r="O20" s="11">
+        <v>8.7768440709617188</v>
+      </c>
+      <c r="P20" s="11">
+        <v>4738.7254901960787</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>37358.100000000006</v>
+      </c>
+      <c r="R20" s="11">
+        <v>13.699035008645025</v>
+      </c>
+      <c r="S20" s="11">
+        <v>2.9087608991193679</v>
+      </c>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="11">
+        <v>1210.57</v>
+      </c>
+      <c r="Y20" s="11">
+        <v>9627.239999999998</v>
+      </c>
+      <c r="Z20" s="11">
+        <v>1284330.3831301581</v>
+      </c>
+      <c r="AA20" s="11">
+        <v>577948.67240857112</v>
+      </c>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="11">
+        <v>1880</v>
+      </c>
+      <c r="AD20" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>1880</v>
+      </c>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="11">
+        <v>78</v>
+      </c>
+      <c r="AJ20" s="11">
+        <v>84</v>
+      </c>
+      <c r="AK20" s="12">
+        <v>26</v>
+      </c>
+      <c r="AL20" s="12">
+        <v>12</v>
+      </c>
+      <c r="AM20" s="12">
+        <v>6</v>
+      </c>
+      <c r="AN20" s="13"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>44044</v>
+      </c>
+      <c r="B21" s="46">
+        <v>8</v>
+      </c>
+      <c r="C21" s="11">
+        <v>14517.14</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="11">
+        <v>305</v>
+      </c>
+      <c r="F21" s="36">
+        <v>0</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="11">
+        <v>48</v>
+      </c>
+      <c r="I21" s="11">
+        <v>10</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1737.36</v>
+      </c>
+      <c r="K21" s="11">
+        <v>4066.4257703081234</v>
+      </c>
+      <c r="L21" s="11">
+        <v>486.65546218487395</v>
+      </c>
+      <c r="M21" s="35"/>
+      <c r="N21" s="11">
+        <v>409.7166666666667</v>
+      </c>
+      <c r="O21" s="11">
+        <v>7.1195144724556494</v>
+      </c>
+      <c r="P21" s="11">
+        <v>5790.2436974789916</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>39075.363600000004</v>
+      </c>
+      <c r="R21" s="11">
+        <v>11.72662215056042</v>
+      </c>
+      <c r="S21" s="11">
+        <v>2.595529697231147</v>
+      </c>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="11">
+        <v>3104.52</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>11313.109999999999</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>1505487.0549809053</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>1264609.1261839604</v>
+      </c>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="11">
+        <v>1525</v>
+      </c>
+      <c r="AD21" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>1525</v>
+      </c>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="11">
+        <v>78</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>81</v>
+      </c>
+      <c r="AK21" s="12">
+        <v>30</v>
+      </c>
+      <c r="AL21" s="11">
+        <v>2</v>
+      </c>
+      <c r="AM21" s="12">
+        <v>10</v>
+      </c>
+      <c r="AN21" s="13"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>44075</v>
+      </c>
+      <c r="B22" s="46">
+        <v>9</v>
+      </c>
+      <c r="C22" s="11">
+        <v>14601.199999999999</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="11">
+        <v>300</v>
+      </c>
+      <c r="F22" s="36">
+        <v>0</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="11">
+        <v>38</v>
+      </c>
+      <c r="I22" s="11">
+        <v>3</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1932.86</v>
+      </c>
+      <c r="K22" s="11">
+        <v>4089.971988795518</v>
+      </c>
+      <c r="L22" s="11">
+        <v>541.41736694677866</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="11">
+        <v>403</v>
+      </c>
+      <c r="O22" s="11">
+        <v>7.0028011204481793</v>
+      </c>
+      <c r="P22" s="11">
+        <v>4503.0644257703088</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>24054.102800000001</v>
+      </c>
+      <c r="R22" s="11">
+        <v>9.2821321801400103</v>
+      </c>
+      <c r="S22" s="11">
+        <v>1.7765464891990272</v>
+      </c>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="11">
+        <v>1025.6799999999998</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>6122.3599999999988</v>
+      </c>
+      <c r="Z22" s="11">
+        <v>1353981.0495387048</v>
+      </c>
+      <c r="AA22" s="11">
+        <v>853008.061209384</v>
+      </c>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="11">
+        <v>1500</v>
+      </c>
+      <c r="AD22" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="11">
+        <v>1500</v>
+      </c>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="11">
+        <v>56.000000000000007</v>
+      </c>
+      <c r="AJ22" s="11">
+        <v>80</v>
+      </c>
+      <c r="AK22" s="12">
+        <v>30</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>9</v>
+      </c>
+      <c r="AM22" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN22" s="13"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>44105</v>
+      </c>
+      <c r="B23" s="46">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11">
+        <v>18724.369999999995</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="11">
+        <v>157</v>
+      </c>
+      <c r="F23" s="36">
+        <v>0</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="11">
+        <v>29</v>
+      </c>
+      <c r="I23" s="11">
+        <v>9</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1390.03</v>
+      </c>
+      <c r="K23" s="11">
+        <v>5244.9215686274501</v>
+      </c>
+      <c r="L23" s="11">
+        <v>389.36414565826334</v>
+      </c>
+      <c r="M23" s="35"/>
+      <c r="N23" s="11">
+        <v>375.08</v>
+      </c>
+      <c r="O23" s="11">
+        <v>2.2642390289449117</v>
+      </c>
+      <c r="P23" s="11">
+        <v>5704.5714285714284</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>26206.767600000003</v>
+      </c>
+      <c r="R23" s="11">
+        <v>7.9828355262770225</v>
+      </c>
+      <c r="S23" s="11">
+        <v>1.7740384909627018</v>
+      </c>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="11">
+        <v>2822.06</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>5694.7499999999991</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>1477237.8239537862</v>
+      </c>
+      <c r="AA23" s="11">
+        <v>842025.55965365807</v>
+      </c>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="11">
+        <v>1625</v>
+      </c>
+      <c r="AD23" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="11">
+        <v>1758</v>
+      </c>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="11">
+        <v>51</v>
+      </c>
+      <c r="AJ23" s="11">
+        <v>72</v>
+      </c>
+      <c r="AK23" s="12">
+        <v>45</v>
+      </c>
+      <c r="AL23" s="11">
+        <v>5</v>
+      </c>
+      <c r="AM23" s="12">
+        <v>6</v>
+      </c>
+      <c r="AN23" s="13"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>44136</v>
+      </c>
+      <c r="B24" s="46">
+        <v>11</v>
+      </c>
+      <c r="C24" s="11">
+        <v>14864.609999999999</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36">
+        <v>0</v>
+      </c>
+      <c r="F24" s="36">
+        <v>0</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="11">
+        <v>32</v>
+      </c>
+      <c r="I24" s="11">
+        <v>2</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1816.5600000000002</v>
+      </c>
+      <c r="K24" s="11">
+        <v>4163.7563025210084</v>
+      </c>
+      <c r="L24" s="11">
+        <v>508.84033613445388</v>
+      </c>
+      <c r="M24" s="35"/>
+      <c r="N24" s="36">
+        <v>0</v>
+      </c>
+      <c r="O24" s="36">
+        <v>0</v>
+      </c>
+      <c r="P24" s="11">
+        <v>4303.3613445378151</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>21517.943200000005</v>
+      </c>
+      <c r="R24" s="11">
+        <v>8.6887977608540012</v>
+      </c>
+      <c r="S24" s="11">
+        <v>1.8996172594782206</v>
+      </c>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="11">
+        <v>283.81</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>6861.99</v>
+      </c>
+      <c r="Z24" s="11">
+        <v>1132751.5104758772</v>
+      </c>
+      <c r="AA24" s="11">
+        <v>826908.60264739033</v>
+      </c>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="11">
+        <v>68</v>
+      </c>
+      <c r="AJ24" s="11">
+        <v>73</v>
+      </c>
+      <c r="AK24" s="12">
+        <v>45</v>
+      </c>
+      <c r="AL24" s="11">
+        <v>5</v>
+      </c>
+      <c r="AM24" s="12">
+        <v>5</v>
+      </c>
+      <c r="AN24" s="13"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>44166</v>
+      </c>
+      <c r="B25" s="46">
+        <v>12</v>
+      </c>
+      <c r="C25" s="11">
+        <v>15527.060000000001</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36">
+        <v>0</v>
+      </c>
+      <c r="F25" s="36">
+        <v>0</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="11">
+        <v>19</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>935.35</v>
+      </c>
+      <c r="K25" s="11">
+        <v>4349.3165266106453</v>
+      </c>
+      <c r="L25" s="11">
+        <v>262.00280112044823</v>
+      </c>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36">
+        <v>0</v>
+      </c>
+      <c r="O25" s="36">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>3678.1820728291318</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>15077.841999999999</v>
+      </c>
+      <c r="R25" s="11">
+        <v>7.1231601898087806</v>
+      </c>
+      <c r="S25" s="11">
+        <v>1.6013200438549158</v>
+      </c>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>4488.13</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>941588.28885339899</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>969835.93751900096</v>
+      </c>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="11">
+        <v>56.000000000000007</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>78</v>
+      </c>
+      <c r="AK25" s="12">
+        <v>33</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>5</v>
+      </c>
+      <c r="AM25" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN25" s="13"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>44197</v>
+      </c>
+      <c r="B26" s="46">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>11974.11</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36">
+        <v>0</v>
+      </c>
+      <c r="F26" s="36">
+        <v>0</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="11">
+        <v>11</v>
+      </c>
+      <c r="I26" s="11">
+        <v>4</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1332.1100000000001</v>
+      </c>
+      <c r="K26" s="11">
+        <v>3354.0924369747904</v>
+      </c>
+      <c r="L26" s="11">
+        <v>373.140056022409</v>
+      </c>
+      <c r="M26" s="35"/>
+      <c r="N26" s="36">
+        <v>0</v>
+      </c>
+      <c r="O26" s="36">
+        <v>0</v>
+      </c>
+      <c r="P26" s="11">
+        <v>4947.4425770308135</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>27924.031200000005</v>
+      </c>
+      <c r="R26" s="11">
+        <v>9.8076305727940252</v>
+      </c>
+      <c r="S26" s="11">
+        <v>2.2348161357118315</v>
+      </c>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="11">
+        <v>3266.9</v>
+      </c>
+      <c r="X26" s="11">
+        <v>1611.3799999999999</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>1855.2</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>1249500.1603836939</v>
+      </c>
+      <c r="AA26" s="11">
+        <v>912135.1170800965</v>
+      </c>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="11">
+        <v>1732.2600000000002</v>
+      </c>
+      <c r="AH26" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="11">
+        <v>56.000000000000007</v>
+      </c>
+      <c r="AJ26" s="11">
+        <v>88</v>
+      </c>
+      <c r="AK26" s="12">
+        <v>30</v>
+      </c>
+      <c r="AL26" s="11">
+        <v>2.7522935779816518</v>
+      </c>
+      <c r="AM26" s="12">
+        <v>9</v>
+      </c>
+      <c r="AN26" s="13"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>44228</v>
+      </c>
+      <c r="B27" s="46">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11">
+        <v>15853.33</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36">
+        <v>0</v>
+      </c>
+      <c r="F27" s="36">
+        <v>0</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="11">
+        <v>25</v>
+      </c>
+      <c r="I27" s="11">
+        <v>2</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1692.1200000000001</v>
+      </c>
+      <c r="K27" s="11">
+        <v>4440.7086834733891</v>
+      </c>
+      <c r="L27" s="11">
+        <v>473.98319327731099</v>
+      </c>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36">
+        <v>0</v>
+      </c>
+      <c r="O27" s="36">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>4916.9495798319322</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>29091.764000000003</v>
+      </c>
+      <c r="R27" s="11">
+        <v>10.281134656259631</v>
+      </c>
+      <c r="S27" s="11">
+        <v>2.4398586980086003</v>
+      </c>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="11">
+        <v>3882.5711880000003</v>
+      </c>
+      <c r="X27" s="11">
+        <v>712.05</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>10471.169999999998</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>1192354.4598605053</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>1037348.3800786396</v>
+      </c>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="11">
+        <v>1804.7</v>
+      </c>
+      <c r="AH27" s="11">
+        <v>6.25</v>
+      </c>
+      <c r="AI27" s="11">
+        <v>70</v>
+      </c>
+      <c r="AJ27" s="11">
+        <v>87</v>
+      </c>
+      <c r="AK27" s="12">
+        <v>30</v>
+      </c>
+      <c r="AL27" s="11">
+        <v>4.4642857142857144</v>
+      </c>
+      <c r="AM27" s="12">
+        <v>10</v>
+      </c>
+      <c r="AN27" s="13"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>44256</v>
+      </c>
+      <c r="B28" s="46">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11">
+        <v>16855.050000000003</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36">
+        <v>0</v>
+      </c>
+      <c r="F28" s="36">
+        <v>0</v>
+      </c>
+      <c r="G28" s="35"/>
+      <c r="H28" s="11">
+        <v>27</v>
+      </c>
+      <c r="I28" s="11">
+        <v>8</v>
+      </c>
+      <c r="J28" s="11">
+        <v>2562.1800000000003</v>
+      </c>
+      <c r="K28" s="11">
+        <v>4721.3025210084043</v>
+      </c>
+      <c r="L28" s="11">
+        <v>717.69747899159677</v>
+      </c>
+      <c r="M28" s="35"/>
+      <c r="N28" s="36">
+        <v>0</v>
+      </c>
+      <c r="O28" s="36">
+        <v>0</v>
+      </c>
+      <c r="P28" s="11">
+        <v>5317.2184873949582</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>39687.440000000002</v>
+      </c>
+      <c r="R28" s="11">
+        <v>12.969861140304712</v>
+      </c>
+      <c r="S28" s="11">
+        <v>2.5982834642912049</v>
+      </c>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="11">
+        <v>5857.0615310000176</v>
+      </c>
+      <c r="X28" s="11">
+        <v>3739.7300000000005</v>
+      </c>
+      <c r="Y28" s="11">
+        <v>14027.959999999997</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>1527448.4306825423</v>
+      </c>
+      <c r="AA28" s="11">
+        <v>1284035.6325000015</v>
+      </c>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="11">
+        <v>2462</v>
+      </c>
+      <c r="AH28" s="11">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="AI28" s="11">
+        <v>75</v>
+      </c>
+      <c r="AJ28" s="11">
+        <v>78</v>
+      </c>
+      <c r="AK28" s="12">
+        <v>35</v>
+      </c>
+      <c r="AL28" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM28" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN28" s="13"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>44287</v>
+      </c>
+      <c r="B29" s="46">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11">
+        <v>20098.150000000001</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36">
+        <v>0</v>
+      </c>
+      <c r="F29" s="36">
+        <v>0</v>
+      </c>
+      <c r="G29" s="35"/>
+      <c r="H29" s="11">
+        <v>40</v>
+      </c>
+      <c r="I29" s="11">
+        <v>5</v>
+      </c>
+      <c r="J29" s="11">
+        <v>2794.9799999999996</v>
+      </c>
+      <c r="K29" s="11">
+        <v>5629.7338935574235</v>
+      </c>
+      <c r="L29" s="11">
+        <v>782.90756302521004</v>
+      </c>
+      <c r="M29" s="35"/>
+      <c r="N29" s="36">
+        <v>0</v>
+      </c>
+      <c r="O29" s="36">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>5177.5014005602243</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>38404.7716</v>
+      </c>
+      <c r="R29" s="11">
+        <v>12.889370514962389</v>
+      </c>
+      <c r="S29" s="11">
+        <v>2.748124099715219</v>
+      </c>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="11">
+        <v>4882.5763820000129</v>
+      </c>
+      <c r="X29" s="11">
+        <v>1024.6500000000001</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>15606.449999999999</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>1397490.4409877192</v>
+      </c>
+      <c r="AA29" s="11">
+        <v>1076968.9995000029</v>
+      </c>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="11">
+        <v>2382.4299999999998</v>
+      </c>
+      <c r="AH29" s="11">
+        <v>4.4642857142857144</v>
+      </c>
+      <c r="AI29" s="11">
+        <v>65</v>
+      </c>
+      <c r="AJ29" s="11">
+        <v>80</v>
+      </c>
+      <c r="AK29" s="12">
+        <v>28.999999999999996</v>
+      </c>
+      <c r="AL29" s="11">
+        <v>5.3571428571428568</v>
+      </c>
+      <c r="AM29" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN29" s="13"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>44317</v>
+      </c>
+      <c r="B30" s="46">
+        <v>5</v>
+      </c>
+      <c r="C30" s="11">
+        <v>16709.030000000002</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36">
+        <v>0</v>
+      </c>
+      <c r="F30" s="36">
+        <v>0</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="11">
+        <v>39</v>
+      </c>
+      <c r="I30" s="11">
+        <v>10</v>
+      </c>
+      <c r="J30" s="11">
+        <v>2474.56</v>
+      </c>
+      <c r="K30" s="11">
+        <v>4680.4005602240904</v>
+      </c>
+      <c r="L30" s="11">
+        <v>693.1540616246499</v>
+      </c>
+      <c r="M30" s="35"/>
+      <c r="N30" s="36">
+        <v>0</v>
+      </c>
+      <c r="O30" s="36">
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
+        <v>6717.1176470588243</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>47939.268000000004</v>
+      </c>
+      <c r="R30" s="11">
+        <v>12.401527766136187</v>
+      </c>
+      <c r="S30" s="11">
+        <v>2.632315810635284</v>
+      </c>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="11">
+        <v>4518.6549540000233</v>
+      </c>
+      <c r="X30" s="11">
+        <v>4480.9799999999996</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>6561.2800000000007</v>
+      </c>
+      <c r="Z30" s="11">
+        <v>1821182.2383283989</v>
+      </c>
+      <c r="AA30" s="11">
+        <v>1038604.4819999981</v>
+      </c>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="35"/>
+      <c r="AG30" s="11">
+        <v>2973.9</v>
+      </c>
+      <c r="AH30" s="11">
+        <v>10.317460317460316</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>69</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>88</v>
+      </c>
+      <c r="AK30" s="12">
+        <v>32</v>
+      </c>
+      <c r="AL30" s="11">
+        <v>3.9682539682539679</v>
+      </c>
+      <c r="AM30" s="12">
+        <v>6</v>
+      </c>
+      <c r="AN30" s="13"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>44348</v>
+      </c>
+      <c r="B31" s="46">
+        <v>6</v>
+      </c>
+      <c r="C31" s="11">
+        <v>16196.58</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36">
+        <v>0</v>
+      </c>
+      <c r="F31" s="36">
+        <v>0</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="11">
+        <v>37</v>
+      </c>
+      <c r="I31" s="11">
+        <v>7</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1236.8599999999999</v>
+      </c>
+      <c r="K31" s="11">
+        <v>4536.8571428571431</v>
+      </c>
+      <c r="L31" s="11">
+        <v>346.45938375350141</v>
+      </c>
+      <c r="M31" s="35"/>
+      <c r="N31" s="36">
+        <v>0</v>
+      </c>
+      <c r="O31" s="36">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11">
+        <v>4653.5182072829139</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>13109.912400000001</v>
+      </c>
+      <c r="R31" s="11">
+        <v>4.8953654534444588</v>
+      </c>
+      <c r="S31" s="11">
+        <v>0.95162292496362921</v>
+      </c>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="11">
+        <v>4995.3846760000097</v>
+      </c>
+      <c r="X31" s="11">
+        <v>1363.31</v>
+      </c>
+      <c r="Y31" s="11">
+        <v>7060.7199999999993</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>1377637.3031892921</v>
+      </c>
+      <c r="AA31" s="11">
+        <v>1076228.6519999993</v>
+      </c>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="11">
+        <v>813.27</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="AI31" s="11">
+        <v>72</v>
+      </c>
+      <c r="AJ31" s="11">
+        <v>88</v>
+      </c>
+      <c r="AK31" s="12">
+        <v>32</v>
+      </c>
+      <c r="AL31" s="11">
+        <v>0.81300813008130091</v>
+      </c>
+      <c r="AM31" s="12">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="AN31" s="13"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>44378</v>
+      </c>
+      <c r="B32" s="46">
+        <v>7</v>
+      </c>
+      <c r="C32" s="11">
+        <v>19456.54</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="11">
+        <v>399</v>
+      </c>
+      <c r="F32" s="36">
+        <v>0</v>
+      </c>
+      <c r="G32" s="35"/>
+      <c r="H32" s="11">
+        <v>34</v>
+      </c>
+      <c r="I32" s="11">
+        <v>11</v>
+      </c>
+      <c r="J32" s="11">
+        <v>859.4</v>
+      </c>
+      <c r="K32" s="11">
+        <v>5450.0112044817934</v>
+      </c>
+      <c r="L32" s="11">
+        <v>240.72829131652662</v>
+      </c>
+      <c r="M32" s="35"/>
+      <c r="N32" s="11">
+        <v>535.99</v>
+      </c>
+      <c r="O32" s="11">
+        <v>9.3137254901960791</v>
+      </c>
+      <c r="P32" s="11">
+        <v>5852.8655462184879</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>21791.016</v>
+      </c>
+      <c r="R32" s="11">
+        <v>6.4695739069133689</v>
+      </c>
+      <c r="S32" s="11">
+        <v>1.4529174506833358</v>
+      </c>
+      <c r="T32" s="11">
+        <v>1058.8499999999999</v>
+      </c>
+      <c r="U32" s="11">
+        <v>0</v>
+      </c>
+      <c r="V32" s="11">
+        <v>0</v>
+      </c>
+      <c r="W32" s="11">
+        <v>3818.1080840000091</v>
+      </c>
+      <c r="X32" s="11">
+        <v>3918.25</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>13171.34</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>1499811.0174636045</v>
+      </c>
+      <c r="AA32" s="11">
+        <v>817978.99199999892</v>
+      </c>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="11">
+        <v>1995</v>
+      </c>
+      <c r="AD32" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>1995</v>
+      </c>
+      <c r="AF32" s="11">
+        <v>5.7625698456325898</v>
+      </c>
+      <c r="AG32" s="11">
+        <v>1351.8</v>
+      </c>
+      <c r="AH32" s="11">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AI32" s="11">
+        <v>61</v>
+      </c>
+      <c r="AJ32" s="11">
+        <v>76</v>
+      </c>
+      <c r="AK32" s="12">
+        <v>44</v>
+      </c>
+      <c r="AL32" s="11">
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AM32" s="11">
+        <v>7.5489657125480001</v>
+      </c>
+      <c r="AN32" s="13"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>44409</v>
+      </c>
+      <c r="B33" s="46">
+        <v>8</v>
+      </c>
+      <c r="C33" s="11">
+        <v>16648.96</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="11">
+        <v>493</v>
+      </c>
+      <c r="F33" s="36">
+        <v>0</v>
+      </c>
+      <c r="G33" s="35"/>
+      <c r="H33" s="11">
+        <v>36</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>1458.74</v>
+      </c>
+      <c r="K33" s="11">
+        <v>4663.574229691877</v>
+      </c>
+      <c r="L33" s="11">
+        <v>408.61064425770309</v>
+      </c>
+      <c r="M33" s="35"/>
+      <c r="N33" s="11">
+        <v>662.26333333333343</v>
+      </c>
+      <c r="O33" s="11">
+        <v>11.50793650793651</v>
+      </c>
+      <c r="P33" s="11">
+        <v>4976.8319327731097</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>17245.820800000005</v>
+      </c>
+      <c r="R33" s="11">
+        <v>6.0214022509904455</v>
+      </c>
+      <c r="S33" s="11">
+        <v>1.2721708849398541</v>
+      </c>
+      <c r="T33" s="11">
+        <v>0</v>
+      </c>
+      <c r="U33" s="11">
+        <v>0</v>
+      </c>
+      <c r="V33" s="11">
+        <v>0</v>
+      </c>
+      <c r="W33" s="11">
+        <v>4868.4811080000209</v>
+      </c>
+      <c r="X33" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>14413.59</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>1355621.4030802439</v>
+      </c>
+      <c r="AA33" s="11">
+        <v>983130.10549999843</v>
+      </c>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="11">
+        <v>2465</v>
+      </c>
+      <c r="AD33" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>2465</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>4.32125489658746</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>1069.8400000000001</v>
+      </c>
+      <c r="AH33" s="11">
+        <v>8.064516129032258</v>
+      </c>
+      <c r="AI33" s="11">
+        <v>79</v>
+      </c>
+      <c r="AJ33" s="11">
+        <v>87</v>
+      </c>
+      <c r="AK33" s="12">
+        <v>34</v>
+      </c>
+      <c r="AL33" s="11">
+        <v>4.838709677419355</v>
+      </c>
+      <c r="AM33" s="11">
+        <v>6.8954236533250004</v>
+      </c>
+      <c r="AN33" s="13"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>44440</v>
+      </c>
+      <c r="B34" s="46">
+        <v>9</v>
+      </c>
+      <c r="C34" s="11">
+        <v>19808.249999999996</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="11">
+        <v>422</v>
+      </c>
+      <c r="F34" s="11">
+        <v>84</v>
+      </c>
+      <c r="G34" s="11">
+        <v>583</v>
+      </c>
+      <c r="H34" s="11">
+        <v>24</v>
+      </c>
+      <c r="I34" s="11">
+        <v>5</v>
+      </c>
+      <c r="J34" s="11">
+        <v>953.3</v>
+      </c>
+      <c r="K34" s="11">
+        <v>5548.5294117647054</v>
+      </c>
+      <c r="L34" s="11">
+        <v>267.03081232492997</v>
+      </c>
+      <c r="M34" s="35"/>
+      <c r="N34" s="11">
+        <v>596.44000000000005</v>
+      </c>
+      <c r="O34" s="11">
+        <v>10.364145658263306</v>
+      </c>
+      <c r="P34" s="11">
+        <v>4635.0224089635849</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>12477.686</v>
+      </c>
+      <c r="R34" s="11">
+        <v>4.6778787492377782</v>
+      </c>
+      <c r="S34" s="11">
+        <v>1.0110012845772105</v>
+      </c>
+      <c r="T34" s="11">
+        <v>370124.21000000008</v>
+      </c>
+      <c r="U34" s="11">
+        <v>142809.27190000011</v>
+      </c>
+      <c r="V34" s="11">
+        <v>0</v>
+      </c>
+      <c r="W34" s="11">
+        <v>4273.3494170000058</v>
+      </c>
+      <c r="X34" s="11">
+        <v>1775.84</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>4739.22</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>1234190.9145266842</v>
+      </c>
+      <c r="AA34" s="11">
+        <v>923178.318499999</v>
+      </c>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="11">
+        <v>2110</v>
+      </c>
+      <c r="AD34" s="11">
+        <v>504</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>2220</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>3.8748756932569801</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>774.05</v>
+      </c>
+      <c r="AH34" s="11">
+        <v>4.2016806722689077</v>
+      </c>
+      <c r="AI34" s="11">
+        <v>80</v>
+      </c>
+      <c r="AJ34" s="11">
+        <v>80</v>
+      </c>
+      <c r="AK34" s="12">
+        <v>27</v>
+      </c>
+      <c r="AL34" s="11">
+        <v>9.2436974789915975</v>
+      </c>
+      <c r="AM34" s="11">
+        <v>8.4578891254629998</v>
+      </c>
+      <c r="AN34" s="13"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>44470</v>
+      </c>
+      <c r="B35" s="46">
+        <v>10</v>
+      </c>
+      <c r="C35" s="11">
+        <v>16802.95</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="11">
+        <v>456</v>
+      </c>
+      <c r="F35" s="11">
+        <v>116</v>
+      </c>
+      <c r="G35" s="11">
+        <v>1053</v>
+      </c>
+      <c r="H35" s="11">
+        <v>42</v>
+      </c>
+      <c r="I35" s="11">
+        <v>13</v>
+      </c>
+      <c r="J35" s="11">
+        <v>1513.8900000000003</v>
+      </c>
+      <c r="K35" s="11">
+        <v>4706.70868347339</v>
+      </c>
+      <c r="L35" s="11">
+        <v>424.05882352941188</v>
+      </c>
+      <c r="M35" s="35"/>
+      <c r="N35" s="11">
+        <v>768.38666666666666</v>
+      </c>
+      <c r="O35" s="11">
+        <v>13.352007469654529</v>
+      </c>
+      <c r="P35" s="11">
+        <v>6476.2156862745105</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>30685.387200000001</v>
+      </c>
+      <c r="R35" s="11">
+        <v>8.2333589531874658</v>
+      </c>
+      <c r="S35" s="11">
+        <v>1.6035643904334054</v>
+      </c>
+      <c r="T35" s="11">
+        <v>698285.20999999868</v>
+      </c>
+      <c r="U35" s="11">
+        <v>275027.39499999961</v>
+      </c>
+      <c r="V35" s="11">
+        <v>0</v>
+      </c>
+      <c r="W35" s="11">
+        <v>3810.180668000005</v>
+      </c>
+      <c r="X35" s="11">
+        <v>4636.0499999999993</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>22139.550000000003</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>1913573.7475254405</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>1015414.1120000002</v>
+      </c>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="11">
+        <v>2280</v>
+      </c>
+      <c r="AD35" s="11">
+        <v>580</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>2860</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>5.1274589478520296</v>
+      </c>
+      <c r="AG35" s="11">
+        <v>1903.56</v>
+      </c>
+      <c r="AH35" s="11">
+        <v>7.2580645161290329</v>
+      </c>
+      <c r="AI35" s="11">
+        <v>49</v>
+      </c>
+      <c r="AJ35" s="11">
+        <v>72</v>
+      </c>
+      <c r="AK35" s="12">
+        <v>48</v>
+      </c>
+      <c r="AL35" s="11">
+        <v>3.225806451612903</v>
+      </c>
+      <c r="AM35" s="11">
+        <v>10.032569888756299</v>
+      </c>
+      <c r="AN35" s="13"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>44501</v>
+      </c>
+      <c r="B36" s="46">
+        <v>11</v>
+      </c>
+      <c r="C36" s="11">
+        <v>17094.599999999999</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="11">
+        <v>377</v>
+      </c>
+      <c r="F36" s="11">
+        <v>101</v>
+      </c>
+      <c r="G36" s="11">
+        <v>161</v>
+      </c>
+      <c r="H36" s="11">
+        <v>27</v>
+      </c>
+      <c r="I36" s="11">
+        <v>3</v>
+      </c>
+      <c r="J36" s="11">
+        <v>1492.22</v>
+      </c>
+      <c r="K36" s="11">
+        <v>4788.4033613445372</v>
+      </c>
+      <c r="L36" s="11">
+        <v>417.98879551820733</v>
+      </c>
+      <c r="M36" s="35"/>
+      <c r="N36" s="11">
+        <v>642.11333333333346</v>
+      </c>
+      <c r="O36" s="11">
+        <v>11.1577964519141</v>
+      </c>
+      <c r="P36" s="11">
+        <v>4780.5854341736695</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>17773.106</v>
+      </c>
+      <c r="R36" s="11">
+        <v>6.460245073883689</v>
+      </c>
+      <c r="S36" s="11">
+        <v>1.1931496146633873</v>
+      </c>
+      <c r="T36" s="11">
+        <v>169328.62999999998</v>
+      </c>
+      <c r="U36" s="11">
+        <v>55568.580999999998</v>
+      </c>
+      <c r="V36" s="11">
+        <v>1058.4538</v>
+      </c>
+      <c r="W36" s="11">
+        <v>4616.3846090000288</v>
+      </c>
+      <c r="X36" s="11">
+        <v>698.61</v>
+      </c>
+      <c r="Y36" s="11">
+        <v>9028.7000000000007</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>1489595.7540927646</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>1106287.3280000032</v>
+      </c>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="11">
+        <v>1885</v>
+      </c>
+      <c r="AD36" s="11">
+        <v>505</v>
+      </c>
+      <c r="AE36" s="11">
+        <v>2390</v>
+      </c>
+      <c r="AF36" s="11">
+        <v>4.6863985642580097</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>1102.55</v>
+      </c>
+      <c r="AH36" s="11">
+        <v>2.4193548387096775</v>
+      </c>
+      <c r="AI36" s="11">
+        <v>67</v>
+      </c>
+      <c r="AJ36" s="11">
+        <v>74</v>
+      </c>
+      <c r="AK36" s="12">
+        <v>46</v>
+      </c>
+      <c r="AL36" s="11">
+        <v>4.032258064516129</v>
+      </c>
+      <c r="AM36" s="11">
+        <v>9.8658547852040002</v>
+      </c>
+      <c r="AN36" s="13"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>44531</v>
+      </c>
+      <c r="B37" s="46">
+        <v>12</v>
+      </c>
+      <c r="C37" s="11">
+        <v>17866.41</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="11">
+        <v>240</v>
+      </c>
+      <c r="F37" s="11">
+        <v>95</v>
+      </c>
+      <c r="G37" s="11">
+        <v>35</v>
+      </c>
+      <c r="H37" s="11">
+        <v>17</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <v>253.5</v>
+      </c>
+      <c r="K37" s="11">
+        <v>5004.5966386554628</v>
+      </c>
+      <c r="L37" s="11">
+        <v>71.008403361344534</v>
+      </c>
+      <c r="M37" s="35"/>
+      <c r="N37" s="11">
+        <v>450.01666666666671</v>
+      </c>
+      <c r="O37" s="11">
+        <v>7.8197945845004675</v>
+      </c>
+      <c r="P37" s="11">
+        <v>4155.9635854341732</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>4086.42</v>
+      </c>
+      <c r="R37" s="11">
+        <v>1.7085906048410742</v>
+      </c>
+      <c r="S37" s="11">
+        <v>0.35357004468162451</v>
+      </c>
+      <c r="T37" s="11">
+        <v>17875.52</v>
+      </c>
+      <c r="U37" s="11">
+        <v>2636.2797999999998</v>
+      </c>
+      <c r="V37" s="11">
+        <v>0</v>
+      </c>
+      <c r="W37" s="11">
+        <v>2622.7048220000083</v>
+      </c>
+      <c r="X37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>6288.3600000000006</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>1155759.6751952376</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>617158.53600000078</v>
+      </c>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="11">
+        <v>1200</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>475</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>1675</v>
+      </c>
+      <c r="AF37" s="11">
+        <v>3.7502469853217399</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>253.5</v>
+      </c>
+      <c r="AH37" s="11">
+        <v>1.6260162601626018</v>
+      </c>
+      <c r="AI37" s="11">
+        <v>69</v>
+      </c>
+      <c r="AJ37" s="11">
+        <v>78</v>
+      </c>
+      <c r="AK37" s="12">
+        <v>45</v>
+      </c>
+      <c r="AL37" s="11">
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="AM37" s="11">
+        <v>8.6555932654780001</v>
+      </c>
+      <c r="AN37" s="13"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>44562</v>
+      </c>
+      <c r="B38" s="46">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11">
+        <v>12159.96</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="11">
+        <v>360</v>
+      </c>
+      <c r="F38" s="11">
+        <v>76</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1648</v>
+      </c>
+      <c r="H38" s="11">
+        <v>2</v>
+      </c>
+      <c r="I38" s="11">
+        <v>2</v>
+      </c>
+      <c r="J38" s="11">
+        <v>655.73</v>
+      </c>
+      <c r="K38" s="11">
+        <v>3406.1512605042017</v>
+      </c>
+      <c r="L38" s="11">
+        <v>183.67787114845939</v>
+      </c>
+      <c r="M38" s="35"/>
+      <c r="N38" s="11">
+        <v>585.69333333333338</v>
+      </c>
+      <c r="O38" s="11">
+        <v>10.177404295051355</v>
+      </c>
+      <c r="P38" s="11">
+        <v>4836.1120448179272</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>15276.601600000002</v>
+      </c>
+      <c r="R38" s="11">
+        <v>5.4890494714137112</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0.96297262352245372</v>
+      </c>
+      <c r="T38" s="11">
+        <v>1248312.0199999975</v>
+      </c>
+      <c r="U38" s="11">
+        <v>642664.41319999914</v>
+      </c>
+      <c r="V38" s="11">
+        <v>146137.45200000011</v>
+      </c>
+      <c r="W38" s="11">
+        <v>4459.0782930000096</v>
+      </c>
+      <c r="X38" s="11">
+        <v>1263.52</v>
+      </c>
+      <c r="Y38" s="11">
+        <v>246.31</v>
+      </c>
+      <c r="Z38" s="11">
+        <v>1586400.4050416076</v>
+      </c>
+      <c r="AA38" s="11">
+        <v>1085896.2995000037</v>
+      </c>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="11">
+        <v>1800</v>
+      </c>
+      <c r="AD38" s="11">
+        <v>380</v>
+      </c>
+      <c r="AE38" s="11">
+        <v>2180</v>
+      </c>
+      <c r="AF38" s="11">
+        <v>5.4109362968789796</v>
+      </c>
+      <c r="AG38" s="11">
+        <v>947.68000000000006</v>
+      </c>
+      <c r="AH38" s="11">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AI38" s="11">
+        <v>49</v>
+      </c>
+      <c r="AJ38" s="11">
+        <v>82</v>
+      </c>
+      <c r="AK38" s="12">
+        <v>52</v>
+      </c>
+      <c r="AL38" s="11">
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AM38" s="11">
+        <v>12.79761904761904</v>
+      </c>
+      <c r="AN38" s="13"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>44593</v>
+      </c>
+      <c r="B39" s="46">
+        <v>2</v>
+      </c>
+      <c r="C39" s="11">
+        <v>16655.84</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="11">
+        <v>345</v>
+      </c>
+      <c r="F39" s="11">
+        <v>74</v>
+      </c>
+      <c r="G39" s="11">
+        <v>73</v>
+      </c>
+      <c r="H39" s="11">
+        <v>17</v>
+      </c>
+      <c r="I39" s="11">
+        <v>1</v>
+      </c>
+      <c r="J39" s="11">
+        <v>678.3</v>
+      </c>
+      <c r="K39" s="11">
+        <v>4665.5014005602243</v>
+      </c>
+      <c r="L39" s="11">
+        <v>190</v>
+      </c>
+      <c r="M39" s="35"/>
+      <c r="N39" s="11">
+        <v>562.85666666666668</v>
+      </c>
+      <c r="O39" s="11">
+        <v>9.7805788982259561</v>
+      </c>
+      <c r="P39" s="11">
+        <v>4807.347338935574</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>8654.0220000000008</v>
+      </c>
+      <c r="R39" s="11">
+        <v>3.1280899976285128</v>
+      </c>
+      <c r="S39" s="11">
+        <v>0.57675072215162904</v>
+      </c>
+      <c r="T39" s="11">
+        <v>94893.299999999988</v>
+      </c>
+      <c r="U39" s="11">
+        <v>49623.265800000001</v>
+      </c>
+      <c r="V39" s="11">
+        <v>0</v>
+      </c>
+      <c r="W39" s="11">
+        <v>3877.2953550000148</v>
+      </c>
+      <c r="X39" s="11">
+        <v>92.35</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>7180.0400000000009</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>1500478.745430134</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>1022011.8880000026</v>
+      </c>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="11">
+        <v>1725</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>370</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>2095</v>
+      </c>
+      <c r="AF39" s="11">
+        <v>3.750487797130611</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>536.85</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>3.3613445378151261</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>61</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>86</v>
+      </c>
+      <c r="AK39" s="12">
+        <v>31</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>4.2016806722689077</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>8.4895833333333304</v>
+      </c>
+      <c r="AN39" s="13"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>44621</v>
+      </c>
+      <c r="B40" s="46">
+        <v>3</v>
+      </c>
+      <c r="C40" s="11">
+        <v>20452.89</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="11">
+        <v>383</v>
+      </c>
+      <c r="F40" s="11">
+        <v>75</v>
+      </c>
+      <c r="G40" s="11">
+        <v>758</v>
+      </c>
+      <c r="H40" s="11">
+        <v>30</v>
+      </c>
+      <c r="I40" s="11">
+        <v>2</v>
+      </c>
+      <c r="J40" s="11">
+        <v>1025.8499999999999</v>
+      </c>
+      <c r="K40" s="11">
+        <v>5729.1008403361348</v>
+      </c>
+      <c r="L40" s="11">
+        <v>287.35294117647055</v>
+      </c>
+      <c r="M40" s="35"/>
+      <c r="N40" s="11">
+        <v>615.24666666666667</v>
+      </c>
+      <c r="O40" s="11">
+        <v>10.69094304388422</v>
+      </c>
+      <c r="P40" s="11">
+        <v>4818.3249299719882</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>14110.642</v>
+      </c>
+      <c r="R40" s="11">
+        <v>5.0888240621995156</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0.79938959537475296</v>
+      </c>
+      <c r="T40" s="11">
+        <v>532898.29000000062</v>
+      </c>
+      <c r="U40" s="11">
+        <v>176876.07709999967</v>
+      </c>
+      <c r="V40" s="11">
+        <v>84212.794200000062</v>
+      </c>
+      <c r="W40" s="11">
+        <v>4806.7236680000351</v>
+      </c>
+      <c r="X40" s="11">
+        <v>1050.3399999999999</v>
+      </c>
+      <c r="Y40" s="11">
+        <v>8446.3599999999988</v>
+      </c>
+      <c r="Z40" s="11">
+        <v>1765177.0903253935</v>
+      </c>
+      <c r="AA40" s="11">
+        <v>1497733.4460000026</v>
+      </c>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="11">
+        <v>1915</v>
+      </c>
+      <c r="AD40" s="11">
+        <v>375</v>
+      </c>
+      <c r="AE40" s="11">
+        <v>2290</v>
+      </c>
+      <c r="AF40" s="11">
+        <v>5.7992429689780991</v>
+      </c>
+      <c r="AG40" s="11">
+        <v>875.34999999999991</v>
+      </c>
+      <c r="AH40" s="11">
+        <v>3.4782608695652173</v>
+      </c>
+      <c r="AI40" s="11">
+        <v>68</v>
+      </c>
+      <c r="AJ40" s="11">
+        <v>79</v>
+      </c>
+      <c r="AK40" s="12">
+        <v>32</v>
+      </c>
+      <c r="AL40" s="11">
+        <v>6.9565217391304346</v>
+      </c>
+      <c r="AM40" s="11">
+        <v>10.597826086956525</v>
+      </c>
+      <c r="AN40" s="13"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>44652</v>
+      </c>
+      <c r="B41" s="46">
+        <v>4</v>
+      </c>
+      <c r="C41" s="11">
+        <v>16813.919999999998</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="11">
+        <v>399</v>
+      </c>
+      <c r="F41" s="11">
+        <v>110</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1779</v>
+      </c>
+      <c r="H41" s="11">
+        <v>44</v>
+      </c>
+      <c r="I41" s="11">
+        <v>13</v>
+      </c>
+      <c r="J41" s="11">
+        <v>1901.8400000000001</v>
+      </c>
+      <c r="K41" s="11">
+        <v>4709.7815126050418</v>
+      </c>
+      <c r="L41" s="11">
+        <v>532.72829131652668</v>
+      </c>
+      <c r="M41" s="35"/>
+      <c r="N41" s="11">
+        <v>683.75666666666666</v>
+      </c>
+      <c r="O41" s="11">
+        <v>11.881419234360411</v>
+      </c>
+      <c r="P41" s="11">
+        <v>6636.971988795518</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>37327.310800000007</v>
+      </c>
+      <c r="R41" s="11">
+        <v>9.7981254170547203</v>
+      </c>
+      <c r="S41" s="11">
+        <v>1.4966257972948755</v>
+      </c>
+      <c r="T41" s="11">
+        <v>1317407.9900000014</v>
+      </c>
+      <c r="U41" s="11">
+        <v>422461.70039999945</v>
+      </c>
+      <c r="V41" s="11">
+        <v>19820.964800000002</v>
+      </c>
+      <c r="W41" s="11">
+        <v>4120.4925630000007</v>
+      </c>
+      <c r="X41" s="11">
+        <v>5717.27</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>19370.960000000003</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>2494097.7809862997</v>
+      </c>
+      <c r="AA41" s="11">
+        <v>1403447.0455000028</v>
+      </c>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="11">
+        <v>1995</v>
+      </c>
+      <c r="AD41" s="11">
+        <v>550</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>2545</v>
+      </c>
+      <c r="AF41" s="11">
+        <v>4.942208124930632</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>2315.59</v>
+      </c>
+      <c r="AH41" s="11">
+        <v>10.483870967741936</v>
+      </c>
+      <c r="AI41" s="11">
+        <v>69</v>
+      </c>
+      <c r="AJ41" s="11">
+        <v>79</v>
+      </c>
+      <c r="AK41" s="12">
+        <v>34</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>2.4193548387096775</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>9.3253968253968207</v>
+      </c>
+      <c r="AN41" s="13"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>44682</v>
+      </c>
+      <c r="B42" s="46">
+        <v>5</v>
+      </c>
+      <c r="C42" s="11">
+        <v>17278.73</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="11">
+        <v>461</v>
+      </c>
+      <c r="F42" s="11">
+        <v>104</v>
+      </c>
+      <c r="G42" s="11">
+        <v>54</v>
+      </c>
+      <c r="H42" s="11">
+        <v>48</v>
+      </c>
+      <c r="I42" s="11">
+        <v>5</v>
+      </c>
+      <c r="J42" s="11">
+        <v>1679.51</v>
+      </c>
+      <c r="K42" s="11">
+        <v>4839.9803921568628</v>
+      </c>
+      <c r="L42" s="11">
+        <v>470.45098039215691</v>
+      </c>
+      <c r="M42" s="35"/>
+      <c r="N42" s="11">
+        <v>758.98333333333346</v>
+      </c>
+      <c r="O42" s="11">
+        <v>13.188608776844072</v>
+      </c>
+      <c r="P42" s="11">
+        <v>5240.0252100840335</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>22471.441200000001</v>
+      </c>
+      <c r="R42" s="11">
+        <v>7.4943188202284929</v>
+      </c>
+      <c r="S42" s="11">
+        <v>1.2729761285307017</v>
+      </c>
+      <c r="T42" s="11">
+        <v>97719.9</v>
+      </c>
+      <c r="U42" s="11">
+        <v>49523.402799999996</v>
+      </c>
+      <c r="V42" s="11">
+        <v>0</v>
+      </c>
+      <c r="W42" s="11">
+        <v>4558.1574590000255</v>
+      </c>
+      <c r="X42" s="11">
+        <v>1673.36</v>
+      </c>
+      <c r="Y42" s="11">
+        <v>18349.969999999998</v>
+      </c>
+      <c r="Z42" s="11">
+        <v>1765268.0750531475</v>
+      </c>
+      <c r="AA42" s="11">
+        <v>1438191.1974999951</v>
+      </c>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="11">
+        <v>2305</v>
+      </c>
+      <c r="AD42" s="11">
+        <v>520</v>
+      </c>
+      <c r="AE42" s="11">
+        <v>2825</v>
+      </c>
+      <c r="AF42" s="11">
+        <v>3.9504029210544278</v>
+      </c>
+      <c r="AG42" s="11">
+        <v>1394.01</v>
+      </c>
+      <c r="AH42" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="AI42" s="11">
+        <v>53</v>
+      </c>
+      <c r="AJ42" s="11">
+        <v>74</v>
+      </c>
+      <c r="AK42" s="12">
+        <v>39</v>
+      </c>
+      <c r="AL42" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="AM42" s="11">
+        <v>7.2916666666666723</v>
+      </c>
+      <c r="AN42" s="13"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>44713</v>
+      </c>
+      <c r="B43" s="46">
+        <v>6</v>
+      </c>
+      <c r="C43" s="11">
+        <v>20899.05</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="11">
+        <v>385</v>
+      </c>
+      <c r="F43" s="11">
+        <v>100</v>
+      </c>
+      <c r="G43" s="11">
+        <v>822</v>
+      </c>
+      <c r="H43" s="11">
+        <v>57</v>
+      </c>
+      <c r="I43" s="11">
+        <v>10</v>
+      </c>
+      <c r="J43" s="11">
+        <v>1279.3</v>
+      </c>
+      <c r="K43" s="11">
+        <v>5854.0756302521013</v>
+      </c>
+      <c r="L43" s="11">
+        <v>358.34733893557421</v>
+      </c>
+      <c r="M43" s="35"/>
+      <c r="N43" s="11">
+        <v>651.51666666666665</v>
+      </c>
+      <c r="O43" s="11">
+        <v>11.321195144724557</v>
+      </c>
+      <c r="P43" s="11">
+        <v>4935.1456582633054</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>18554.925999999999</v>
+      </c>
+      <c r="R43" s="11">
+        <v>6.5332006695246507</v>
+      </c>
+      <c r="S43" s="11">
+        <v>1.0380108103492176</v>
+      </c>
+      <c r="T43" s="11">
+        <v>526170.86999999976</v>
+      </c>
+      <c r="U43" s="11">
+        <v>128344.66580000006</v>
+      </c>
+      <c r="V43" s="11">
+        <v>56229.038099999976</v>
+      </c>
+      <c r="W43" s="11">
+        <v>4769.405838000006</v>
+      </c>
+      <c r="X43" s="11">
+        <v>2679.68</v>
+      </c>
+      <c r="Y43" s="11">
+        <v>19943.080000000005</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>1787546.5086685922</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>1604156.2444999998</v>
+      </c>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="11">
+        <v>1925</v>
+      </c>
+      <c r="AD43" s="11">
+        <v>500</v>
+      </c>
+      <c r="AE43" s="11">
+        <v>2425</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>3.7212120886085849</v>
+      </c>
+      <c r="AG43" s="11">
+        <v>1151.05</v>
+      </c>
+      <c r="AH43" s="11">
+        <v>2.459016393442623</v>
+      </c>
+      <c r="AI43" s="11">
+        <v>67</v>
+      </c>
+      <c r="AJ43" s="11">
+        <v>80</v>
+      </c>
+      <c r="AK43" s="12">
+        <v>54</v>
+      </c>
+      <c r="AL43" s="11">
+        <v>5.7377049180327866</v>
+      </c>
+      <c r="AM43" s="11">
+        <v>6.9128787878787916</v>
+      </c>
+      <c r="AN43" s="13"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>44743</v>
+      </c>
+      <c r="B44" s="46">
+        <v>7</v>
+      </c>
+      <c r="C44" s="11">
+        <v>15835.39</v>
+      </c>
+      <c r="D44" s="11">
+        <v>86</v>
+      </c>
+      <c r="E44" s="11">
+        <v>324</v>
+      </c>
+      <c r="F44" s="11">
+        <v>93</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1276</v>
+      </c>
+      <c r="H44" s="11">
+        <v>35</v>
+      </c>
+      <c r="I44" s="11">
+        <v>8</v>
+      </c>
+      <c r="J44" s="11">
+        <v>354.5104</v>
+      </c>
+      <c r="K44" s="11">
+        <v>4435.6834733893556</v>
+      </c>
+      <c r="L44" s="11">
+        <v>99.3026330532213</v>
+      </c>
+      <c r="M44" s="11">
+        <v>429.32933333333335</v>
+      </c>
+      <c r="N44" s="11">
+        <v>560.17000000000007</v>
+      </c>
+      <c r="O44" s="11">
+        <v>9.7338935574229701</v>
+      </c>
+      <c r="P44" s="11">
+        <v>5811.32599439776</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>9848.4140560000014</v>
+      </c>
+      <c r="R44" s="11">
+        <v>2.9448135804429194</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0.44355928680837581</v>
+      </c>
+      <c r="T44" s="11">
+        <v>1129316.1600000015</v>
+      </c>
+      <c r="U44" s="11">
+        <v>24255.688300000005</v>
+      </c>
+      <c r="V44" s="11">
+        <v>429.99760000000003</v>
+      </c>
+      <c r="W44" s="11">
+        <v>3622.2221899999945</v>
+      </c>
+      <c r="X44" s="11">
+        <v>2214.3100000000004</v>
+      </c>
+      <c r="Y44" s="11">
+        <v>9522.8499999999967</v>
+      </c>
+      <c r="Z44" s="11">
+        <v>2220315.1526516597</v>
+      </c>
+      <c r="AA44" s="11">
+        <v>1112991.7660000033</v>
+      </c>
+      <c r="AB44" s="11">
+        <v>1598</v>
+      </c>
+      <c r="AC44" s="11">
+        <v>1620</v>
+      </c>
+      <c r="AD44" s="11">
+        <v>465</v>
+      </c>
+      <c r="AE44" s="11">
+        <v>2085</v>
+      </c>
+      <c r="AF44" s="11">
+        <v>3.6679448160696735</v>
+      </c>
+      <c r="AG44" s="11">
+        <v>610.94380000000001</v>
+      </c>
+      <c r="AH44" s="11">
+        <v>5</v>
+      </c>
+      <c r="AI44" s="11">
+        <v>74</v>
+      </c>
+      <c r="AJ44" s="11">
+        <v>86</v>
+      </c>
+      <c r="AK44" s="12">
+        <v>28.999999999999996</v>
+      </c>
+      <c r="AL44" s="11">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="AM44" s="11">
+        <v>7.6041666666666634</v>
+      </c>
+      <c r="AN44" s="13"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>44774</v>
+      </c>
+      <c r="B45" s="46">
+        <v>8</v>
+      </c>
+      <c r="C45" s="11">
+        <v>16921.8</v>
+      </c>
+      <c r="D45" s="11">
+        <v>157</v>
+      </c>
+      <c r="E45" s="11">
+        <v>336</v>
+      </c>
+      <c r="F45" s="11">
+        <v>76</v>
+      </c>
+      <c r="G45" s="11">
+        <v>63</v>
+      </c>
+      <c r="H45" s="11">
+        <v>27</v>
+      </c>
+      <c r="I45" s="11">
+        <v>3</v>
+      </c>
+      <c r="J45" s="11">
+        <v>840.55</v>
+      </c>
+      <c r="K45" s="11">
+        <v>4740</v>
+      </c>
+      <c r="L45" s="11">
+        <v>235.44817927170868</v>
+      </c>
+      <c r="M45" s="11">
+        <v>742.59466666666674</v>
+      </c>
+      <c r="N45" s="11">
+        <v>553.45333333333338</v>
+      </c>
+      <c r="O45" s="11">
+        <v>9.6171802054155009</v>
+      </c>
+      <c r="P45" s="11">
+        <v>4896.428543417368</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>11651.534388</v>
+      </c>
+      <c r="R45" s="11">
+        <v>4.1349517548945327</v>
+      </c>
+      <c r="S45" s="11">
+        <v>0.68731923820065088</v>
+      </c>
+      <c r="T45" s="11">
+        <v>88756.740000000034</v>
+      </c>
+      <c r="U45" s="11">
+        <v>0</v>
+      </c>
+      <c r="V45" s="11">
+        <v>0</v>
+      </c>
+      <c r="W45" s="11">
+        <v>4885.7706370000124</v>
+      </c>
+      <c r="X45" s="11">
+        <v>1296.26</v>
+      </c>
+      <c r="Y45" s="11">
+        <v>8199.07</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>1695214.3546138508</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>1429285.4965000041</v>
+      </c>
+      <c r="AB45" s="11">
+        <v>2764</v>
+      </c>
+      <c r="AC45" s="11">
+        <v>1680</v>
+      </c>
+      <c r="AD45" s="11">
+        <v>380</v>
+      </c>
+      <c r="AE45" s="11">
+        <v>2060</v>
+      </c>
+      <c r="AF45" s="11">
+        <v>6.3085375150298457</v>
+      </c>
+      <c r="AG45" s="11">
+        <v>722.79989999999998</v>
+      </c>
+      <c r="AH45" s="11">
+        <v>4.9586776859504136</v>
+      </c>
+      <c r="AI45" s="11">
+        <v>60</v>
+      </c>
+      <c r="AJ45" s="11">
+        <v>83</v>
+      </c>
+      <c r="AK45" s="12">
+        <v>38</v>
+      </c>
+      <c r="AL45" s="11">
+        <v>4.1322314049586781</v>
+      </c>
+      <c r="AM45" s="11">
+        <v>12.047101449275361</v>
+      </c>
+      <c r="AN45" s="13"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>44805</v>
+      </c>
+      <c r="B46" s="46">
+        <v>9</v>
+      </c>
+      <c r="C46" s="11">
+        <v>20736.533299999999</v>
+      </c>
+      <c r="D46" s="11">
+        <v>123</v>
+      </c>
+      <c r="E46" s="11">
+        <v>359</v>
+      </c>
+      <c r="F46" s="11">
+        <v>73</v>
+      </c>
+      <c r="G46" s="11">
+        <v>594</v>
+      </c>
+      <c r="H46" s="11">
+        <v>52</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>489.68329999999997</v>
+      </c>
+      <c r="K46" s="11">
+        <v>5808.5527450980389</v>
+      </c>
+      <c r="L46" s="11">
+        <v>137.16619047619048</v>
+      </c>
+      <c r="M46" s="11">
+        <v>470.16666666666674</v>
+      </c>
+      <c r="N46" s="11">
+        <v>580.32000000000005</v>
+      </c>
+      <c r="O46" s="11">
+        <v>10.084033613445378</v>
+      </c>
+      <c r="P46" s="11">
+        <v>4748.3986834733896</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>5658.1200000000008</v>
+      </c>
+      <c r="R46" s="11">
+        <v>2.0705786157613284</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0.32238222593405452</v>
+      </c>
+      <c r="T46" s="11">
+        <v>383129.61000000098</v>
+      </c>
+      <c r="U46" s="11">
+        <v>765.3</v>
+      </c>
+      <c r="V46" s="11">
+        <v>368.78</v>
+      </c>
+      <c r="W46" s="11">
+        <v>3923.1471300000085</v>
+      </c>
+      <c r="X46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="11">
+        <v>15401.409999999996</v>
+      </c>
+      <c r="Z46" s="11">
+        <v>1755096.7593223974</v>
+      </c>
+      <c r="AA46" s="11">
+        <v>1134213.1800000011</v>
+      </c>
+      <c r="AB46" s="11">
+        <v>1750</v>
+      </c>
+      <c r="AC46" s="11">
+        <v>1795</v>
+      </c>
+      <c r="AD46" s="11">
+        <v>365</v>
+      </c>
+      <c r="AE46" s="11">
+        <v>2160</v>
+      </c>
+      <c r="AF46" s="11">
+        <v>3.9273605420186217</v>
+      </c>
+      <c r="AG46" s="11">
+        <v>351</v>
+      </c>
+      <c r="AH46" s="11">
+        <v>8.7301587301587293</v>
+      </c>
+      <c r="AI46" s="11">
+        <v>56.999999999999993</v>
+      </c>
+      <c r="AJ46" s="11">
+        <v>80</v>
+      </c>
+      <c r="AK46" s="12">
+        <v>31</v>
+      </c>
+      <c r="AL46" s="11">
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="AM46" s="11">
+        <v>7.8125000000000071</v>
+      </c>
+      <c r="AN46" s="13"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>44835</v>
+      </c>
+      <c r="B47" s="46">
+        <v>10</v>
+      </c>
+      <c r="C47" s="11">
+        <v>17671.066800000001</v>
+      </c>
+      <c r="D47" s="11">
+        <v>181</v>
+      </c>
+      <c r="E47" s="11">
+        <v>458</v>
+      </c>
+      <c r="F47" s="11">
+        <v>89</v>
+      </c>
+      <c r="G47" s="11">
+        <v>1110</v>
+      </c>
+      <c r="H47" s="11">
+        <v>28</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
+        <v>496.35</v>
+      </c>
+      <c r="K47" s="11">
+        <v>4949.8786554621856</v>
+      </c>
+      <c r="L47" s="11">
+        <v>139.03361344537817</v>
+      </c>
+      <c r="M47" s="11">
+        <v>758.17733333333331</v>
+      </c>
+      <c r="N47" s="11">
+        <v>734.8033333333334</v>
+      </c>
+      <c r="O47" s="11">
+        <v>12.768440709617181</v>
+      </c>
+      <c r="P47" s="11">
+        <v>6366.9001400560228</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>9378.6160000000018</v>
+      </c>
+      <c r="R47" s="11">
+        <v>2.5596315960695448</v>
+      </c>
+      <c r="S47" s="11">
+        <v>0.44947793664283692</v>
+      </c>
+      <c r="T47" s="11">
+        <v>959633.08000000194</v>
+      </c>
+      <c r="U47" s="11">
+        <v>175.58500000000001</v>
+      </c>
+      <c r="V47" s="11">
+        <v>0</v>
+      </c>
+      <c r="W47" s="11">
+        <v>4261.9459460000071</v>
+      </c>
+      <c r="X47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="11">
+        <v>6570.72</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>2086557.5894668251</v>
+      </c>
+      <c r="AA47" s="11">
+        <v>1177912.5700000017</v>
+      </c>
+      <c r="AB47" s="11">
+        <v>2822</v>
+      </c>
+      <c r="AC47" s="11">
+        <v>2290</v>
+      </c>
+      <c r="AD47" s="11">
+        <v>445</v>
+      </c>
+      <c r="AE47" s="11">
+        <v>2735</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>4.700447467259429</v>
+      </c>
+      <c r="AG47" s="11">
+        <v>581.80000000000007</v>
+      </c>
+      <c r="AH47" s="11">
+        <v>4.032258064516129</v>
+      </c>
+      <c r="AI47" s="11">
+        <v>56.999999999999993</v>
+      </c>
+      <c r="AJ47" s="11">
+        <v>79</v>
+      </c>
+      <c r="AK47" s="12">
+        <v>33</v>
+      </c>
+      <c r="AL47" s="11">
+        <v>8.064516129032258</v>
+      </c>
+      <c r="AM47" s="11">
+        <v>9.3749999999999911</v>
+      </c>
+      <c r="AN47" s="13"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>44866</v>
+      </c>
+      <c r="B48" s="46">
+        <v>11</v>
+      </c>
+      <c r="C48" s="11">
+        <v>17414.133399999999</v>
+      </c>
+      <c r="D48" s="11">
+        <v>152</v>
+      </c>
+      <c r="E48" s="11">
+        <v>426</v>
+      </c>
+      <c r="F48" s="11">
+        <v>85</v>
+      </c>
+      <c r="G48" s="11">
+        <v>74</v>
+      </c>
+      <c r="H48" s="11">
+        <v>23</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>527.95000000000005</v>
+      </c>
+      <c r="K48" s="11">
+        <v>4877.9085154061622</v>
+      </c>
+      <c r="L48" s="11">
+        <v>147.88515406162466</v>
+      </c>
+      <c r="M48" s="11">
+        <v>674.89066666666668</v>
+      </c>
+      <c r="N48" s="11">
+        <v>686.44333333333338</v>
+      </c>
+      <c r="O48" s="11">
+        <v>11.928104575163401</v>
+      </c>
+      <c r="P48" s="11">
+        <v>4606.3492156862749</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>7133.1</v>
+      </c>
+      <c r="R48" s="11">
+        <v>2.6908420101941015</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0.48380344411667653</v>
+      </c>
+      <c r="T48" s="11">
+        <v>98135.73</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>4008.7170020000176</v>
+      </c>
+      <c r="X48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="11">
+        <v>6676.7599999999993</v>
+      </c>
+      <c r="Z48" s="11">
+        <v>1474379.747962221</v>
+      </c>
+      <c r="AA48" s="11">
+        <v>1106375.3393000036</v>
+      </c>
+      <c r="AB48" s="11">
+        <v>2512</v>
+      </c>
+      <c r="AC48" s="11">
+        <v>2130</v>
+      </c>
+      <c r="AD48" s="11">
+        <v>425</v>
+      </c>
+      <c r="AE48" s="11">
+        <v>2555</v>
+      </c>
+      <c r="AF48" s="11">
+        <v>4.2897106063960564</v>
+      </c>
+      <c r="AG48" s="11">
+        <v>442.5</v>
+      </c>
+      <c r="AH48" s="11">
+        <v>1.639344262295082</v>
+      </c>
+      <c r="AI48" s="11">
+        <v>72</v>
+      </c>
+      <c r="AJ48" s="11">
+        <v>86</v>
+      </c>
+      <c r="AK48" s="12">
+        <v>35</v>
+      </c>
+      <c r="AL48" s="11">
+        <v>3.278688524590164</v>
+      </c>
+      <c r="AM48" s="11">
+        <v>8.806818181818187</v>
+      </c>
+      <c r="AN48" s="13"/>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>44896</v>
+      </c>
+      <c r="B49" s="46">
+        <v>12</v>
+      </c>
+      <c r="C49" s="11">
+        <v>18302.533299999999</v>
+      </c>
+      <c r="D49" s="11">
+        <v>62</v>
+      </c>
+      <c r="E49" s="11">
+        <v>142</v>
+      </c>
+      <c r="F49" s="11">
+        <v>57</v>
+      </c>
+      <c r="G49" s="11">
+        <v>20</v>
+      </c>
+      <c r="H49" s="11">
+        <v>5</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11">
+        <v>54.75</v>
+      </c>
+      <c r="K49" s="11">
+        <v>5126.7600280112047</v>
+      </c>
+      <c r="L49" s="11">
+        <v>15.336134453781513</v>
+      </c>
+      <c r="M49" s="11">
+        <v>236.69533333333334</v>
+      </c>
+      <c r="N49" s="11">
+        <v>267.32333333333332</v>
+      </c>
+      <c r="O49" s="11">
+        <v>4.6451914098972917</v>
+      </c>
+      <c r="P49" s="11">
+        <v>4342.3062464985996</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>898.69</v>
+      </c>
+      <c r="R49" s="11">
+        <v>0.35963024282756512</v>
+      </c>
+      <c r="S49" s="11">
+        <v>7.2472912765811276E-2</v>
+      </c>
+      <c r="T49" s="11">
+        <v>3893.95</v>
+      </c>
+      <c r="U49" s="11">
+        <v>0</v>
+      </c>
+      <c r="V49" s="11">
+        <v>0</v>
+      </c>
+      <c r="W49" s="11">
+        <v>2245.6593269999971</v>
+      </c>
+      <c r="X49" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="11">
+        <v>1630.23</v>
+      </c>
+      <c r="Z49" s="11">
+        <v>1240035.7122446892</v>
+      </c>
+      <c r="AA49" s="11">
+        <v>1286561</v>
+      </c>
+      <c r="AB49" s="11">
+        <v>881</v>
+      </c>
+      <c r="AC49" s="11">
+        <v>710</v>
+      </c>
+      <c r="AD49" s="11">
+        <v>285</v>
+      </c>
+      <c r="AE49" s="11">
+        <v>995</v>
+      </c>
+      <c r="AF49" s="11">
+        <v>2.948995647299828</v>
+      </c>
+      <c r="AG49" s="11">
+        <v>55.75</v>
+      </c>
+      <c r="AH49" s="11">
+        <v>0.81300813008130091</v>
+      </c>
+      <c r="AI49" s="11">
+        <v>77</v>
+      </c>
+      <c r="AJ49" s="11">
+        <v>82</v>
+      </c>
+      <c r="AK49" s="12">
+        <v>34</v>
+      </c>
+      <c r="AL49" s="11">
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="AM49" s="11">
+        <v>5.5397727272727284</v>
+      </c>
+      <c r="AN49" s="13"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>44927</v>
+      </c>
+      <c r="B50" s="47">
+        <v>1</v>
+      </c>
+      <c r="C50" s="11">
+        <v>12374.616599999999</v>
+      </c>
+      <c r="D50" s="11">
+        <v>105</v>
+      </c>
+      <c r="E50" s="11">
+        <v>335</v>
+      </c>
+      <c r="F50" s="11">
+        <v>98</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1280</v>
+      </c>
+      <c r="H50" s="11">
+        <v>2</v>
+      </c>
+      <c r="I50" s="11">
+        <v>1</v>
+      </c>
+      <c r="J50" s="11">
+        <v>153.11669999999998</v>
+      </c>
+      <c r="K50" s="11">
+        <v>3466.2791596638654</v>
+      </c>
+      <c r="L50" s="11">
+        <v>42.889831932773106</v>
+      </c>
+      <c r="M50" s="11">
+        <v>496.7646666666667</v>
+      </c>
+      <c r="N50" s="11">
+        <v>581.66333333333341</v>
+      </c>
+      <c r="O50" s="11">
+        <v>10.107376283846873</v>
+      </c>
+      <c r="P50" s="11">
+        <v>4772.8991316526617</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>3331.1979999999999</v>
+      </c>
+      <c r="R50" s="11">
+        <v>1.2127881286605227</v>
+      </c>
+      <c r="S50" s="11">
+        <v>0.21407322914422308</v>
+      </c>
+      <c r="T50" s="11">
+        <v>1189557.8699999996</v>
+      </c>
+      <c r="U50" s="11">
+        <v>2566.6693</v>
+      </c>
+      <c r="V50" s="11">
+        <v>877.46069999999997</v>
+      </c>
+      <c r="W50" s="11">
+        <v>2541</v>
+      </c>
+      <c r="X50" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="11">
+        <v>4587.0600000000004</v>
+      </c>
+      <c r="Z50" s="11">
+        <v>1556102.0933429005</v>
+      </c>
+      <c r="AA50" s="11">
+        <v>1165945</v>
+      </c>
+      <c r="AB50" s="11">
+        <v>1849</v>
+      </c>
+      <c r="AC50" s="11">
+        <v>1675</v>
+      </c>
+      <c r="AD50" s="11">
+        <v>490</v>
+      </c>
+      <c r="AE50" s="11">
+        <v>2165</v>
+      </c>
+      <c r="AF50" s="11">
+        <v>5.9921173936187868</v>
+      </c>
+      <c r="AG50" s="11">
+        <v>206.64999999999998</v>
+      </c>
+      <c r="AH50" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI50" s="11">
+        <v>52</v>
+      </c>
+      <c r="AJ50" s="11">
+        <v>74</v>
+      </c>
+      <c r="AK50" s="12">
+        <v>36</v>
+      </c>
+      <c r="AL50" s="11">
+        <v>2</v>
+      </c>
+      <c r="AM50" s="11">
+        <v>13.020833333333339</v>
+      </c>
+      <c r="AN50" s="13"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>44958</v>
+      </c>
+      <c r="B51" s="47">
+        <v>2</v>
+      </c>
+      <c r="C51" s="11">
+        <v>16883.716700000001</v>
+      </c>
+      <c r="D51" s="11">
+        <v>103</v>
+      </c>
+      <c r="E51" s="11">
+        <v>149</v>
+      </c>
+      <c r="F51" s="11">
+        <v>45</v>
+      </c>
+      <c r="G51" s="11">
+        <v>80</v>
+      </c>
+      <c r="H51" s="11">
+        <v>5</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
+        <v>216.0333</v>
+      </c>
+      <c r="K51" s="11">
+        <v>4729.3324089635862</v>
+      </c>
+      <c r="L51" s="11">
+        <v>60.513529411764708</v>
+      </c>
+      <c r="M51" s="11">
+        <v>571.45400000000006</v>
+      </c>
+      <c r="N51" s="11">
+        <v>260.60666666666668</v>
+      </c>
+      <c r="O51" s="11">
+        <v>4.5284780578898234</v>
+      </c>
+      <c r="P51" s="11">
+        <v>3592.2922689075635</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>2619.5</v>
+      </c>
+      <c r="R51" s="11">
+        <v>1.2671075701965506</v>
+      </c>
+      <c r="S51" s="11">
+        <v>0.20298056392057956</v>
+      </c>
+      <c r="T51" s="11">
+        <v>144126.56000000006</v>
+      </c>
+      <c r="U51" s="11">
+        <v>0</v>
+      </c>
+      <c r="V51" s="11">
+        <v>0</v>
+      </c>
+      <c r="W51" s="11">
+        <v>3590</v>
+      </c>
+      <c r="X51" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="11">
+        <v>2563.1999999999998</v>
+      </c>
+      <c r="Z51" s="11">
+        <v>1290517.6482931315</v>
+      </c>
+      <c r="AA51" s="11">
+        <v>1138028</v>
+      </c>
+      <c r="AB51" s="11">
+        <v>2127</v>
+      </c>
+      <c r="AC51" s="11">
+        <v>745</v>
+      </c>
+      <c r="AD51" s="11">
+        <v>225</v>
+      </c>
+      <c r="AE51" s="11">
+        <v>970</v>
+      </c>
+      <c r="AF51" s="11">
+        <v>4.4173038829929228</v>
+      </c>
+      <c r="AG51" s="11">
+        <v>162.5</v>
+      </c>
+      <c r="AH51" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI51" s="11">
+        <v>64</v>
+      </c>
+      <c r="AJ51" s="11">
+        <v>75</v>
+      </c>
+      <c r="AK51" s="12">
+        <v>33</v>
+      </c>
+      <c r="AL51" s="11">
+        <v>3</v>
+      </c>
+      <c r="AM51" s="11">
+        <v>9.6117424242424292</v>
+      </c>
+      <c r="AN51" s="13"/>
+    </row>
+    <row r="52" spans="1:40" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="Z52" s="41"/>
+      <c r="AA52" s="41"/>
+      <c r="AE52" s="41"/>
+      <c r="AF52" s="41"/>
+      <c r="AG52" s="41"/>
+      <c r="AH52" s="41"/>
+      <c r="AI52" s="41"/>
+      <c r="AJ52" s="41"/>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="16"/>
+      <c r="Z53" s="44"/>
+      <c r="AA53" s="45"/>
+      <c r="AB53" s="45"/>
+      <c r="AE53" s="16"/>
+      <c r="AF53" s="16"/>
+      <c r="AG53" s="16"/>
+      <c r="AH53" s="16"/>
+      <c r="AI53" s="16"/>
+      <c r="AJ53" s="16"/>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="Z54" s="44"/>
+      <c r="AA54" s="45"/>
+      <c r="AB54" s="45"/>
+      <c r="AE54" s="16"/>
+      <c r="AF54" s="16"/>
+      <c r="AG54" s="16"/>
+      <c r="AH54" s="16"/>
+      <c r="AI54" s="16"/>
+      <c r="AJ54" s="16"/>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="Z55" s="44"/>
+      <c r="AA55" s="45"/>
+      <c r="AB55" s="45"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="16"/>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="17"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="Z56" s="44"/>
+      <c r="AA56" s="45"/>
+      <c r="AB56" s="45"/>
+      <c r="AE56" s="16"/>
+      <c r="AF56" s="16"/>
+      <c r="AG56" s="16"/>
+      <c r="AH56" s="16"/>
+      <c r="AI56" s="16"/>
+      <c r="AJ56" s="16"/>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="17"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="Z57" s="44"/>
+      <c r="AA57" s="45"/>
+      <c r="AB57" s="45"/>
+      <c r="AE57" s="16"/>
+      <c r="AF57" s="16"/>
+      <c r="AG57" s="16"/>
+      <c r="AH57" s="16"/>
+      <c r="AI57" s="16"/>
+      <c r="AJ57" s="16"/>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="17"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="Z58" s="44"/>
+      <c r="AA58" s="45"/>
+      <c r="AB58" s="45"/>
+      <c r="AE58" s="16"/>
+      <c r="AF58" s="16"/>
+      <c r="AG58" s="16"/>
+      <c r="AH58" s="16"/>
+      <c r="AI58" s="16"/>
+      <c r="AJ58" s="16"/>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="17"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="Z59" s="44"/>
+      <c r="AA59" s="45"/>
+      <c r="AB59" s="45"/>
+      <c r="AE59" s="16"/>
+      <c r="AF59" s="16"/>
+      <c r="AG59" s="16"/>
+      <c r="AH59" s="16"/>
+      <c r="AI59" s="16"/>
+      <c r="AJ59" s="16"/>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="17"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="Z60" s="44"/>
+      <c r="AA60" s="45"/>
+      <c r="AB60" s="45"/>
+      <c r="AE60" s="16"/>
+      <c r="AF60" s="16"/>
+      <c r="AG60" s="16"/>
+      <c r="AH60" s="16"/>
+      <c r="AI60" s="16"/>
+      <c r="AJ60" s="16"/>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="17"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="Z61" s="44"/>
+      <c r="AA61" s="45"/>
+      <c r="AB61" s="45"/>
+      <c r="AE61" s="16"/>
+      <c r="AF61" s="16"/>
+      <c r="AG61" s="16"/>
+      <c r="AH61" s="16"/>
+      <c r="AI61" s="16"/>
+      <c r="AJ61" s="16"/>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="17"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="Z62" s="44"/>
+      <c r="AA62" s="45"/>
+      <c r="AB62" s="45"/>
+      <c r="AE62" s="16"/>
+      <c r="AF62" s="16"/>
+      <c r="AG62" s="16"/>
+      <c r="AH62" s="16"/>
+      <c r="AI62" s="16"/>
+      <c r="AJ62" s="16"/>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="17"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="Z63" s="44"/>
+      <c r="AA63" s="45"/>
+      <c r="AB63" s="45"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="16"/>
+      <c r="AG63" s="16"/>
+      <c r="AH63" s="16"/>
+      <c r="AI63" s="16"/>
+      <c r="AJ63" s="16"/>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="17"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="45"/>
+      <c r="AB64" s="45"/>
+      <c r="AE64" s="16"/>
+      <c r="AF64" s="16"/>
+      <c r="AG64" s="16"/>
+      <c r="AH64" s="16"/>
+      <c r="AI64" s="16"/>
+      <c r="AJ64" s="16"/>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="17"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="Z65" s="44"/>
+      <c r="AA65" s="45"/>
+      <c r="AB65" s="45"/>
+      <c r="AE65" s="16"/>
+      <c r="AF65" s="16"/>
+      <c r="AG65" s="16"/>
+      <c r="AH65" s="16"/>
+      <c r="AI65" s="16"/>
+      <c r="AJ65" s="16"/>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="16"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="17"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="Z66" s="44"/>
+      <c r="AA66" s="45"/>
+      <c r="AB66" s="45"/>
+      <c r="AE66" s="16"/>
+      <c r="AF66" s="16"/>
+      <c r="AG66" s="16"/>
+      <c r="AH66" s="16"/>
+      <c r="AI66" s="16"/>
+      <c r="AJ66" s="16"/>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="16"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="17"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="45"/>
+      <c r="AB67" s="45"/>
+      <c r="AE67" s="16"/>
+      <c r="AF67" s="16"/>
+      <c r="AG67" s="16"/>
+      <c r="AH67" s="16"/>
+      <c r="AI67" s="16"/>
+      <c r="AJ67" s="16"/>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="16"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="17"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="Z68" s="44"/>
+      <c r="AA68" s="45"/>
+      <c r="AB68" s="45"/>
+      <c r="AE68" s="16"/>
+      <c r="AF68" s="16"/>
+      <c r="AG68" s="16"/>
+      <c r="AH68" s="16"/>
+      <c r="AI68" s="16"/>
+      <c r="AJ68" s="16"/>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="16"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="17"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="Z69" s="44"/>
+      <c r="AA69" s="45"/>
+      <c r="AB69" s="45"/>
+      <c r="AE69" s="16"/>
+      <c r="AF69" s="16"/>
+      <c r="AG69" s="16"/>
+      <c r="AH69" s="16"/>
+      <c r="AI69" s="16"/>
+      <c r="AJ69" s="16"/>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="16"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="17"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="Z70" s="44"/>
+      <c r="AA70" s="45"/>
+      <c r="AB70" s="45"/>
+      <c r="AE70" s="16"/>
+      <c r="AF70" s="16"/>
+      <c r="AG70" s="16"/>
+      <c r="AH70" s="16"/>
+      <c r="AI70" s="16"/>
+      <c r="AJ70" s="16"/>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="16"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="17"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="Z71" s="44"/>
+      <c r="AA71" s="45"/>
+      <c r="AB71" s="45"/>
+      <c r="AE71" s="16"/>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="16"/>
+      <c r="AH71" s="16"/>
+      <c r="AI71" s="16"/>
+      <c r="AJ71" s="16"/>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="16"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="17"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="Z72" s="44"/>
+      <c r="AA72" s="45"/>
+      <c r="AB72" s="45"/>
+      <c r="AE72" s="16"/>
+      <c r="AF72" s="16"/>
+      <c r="AG72" s="16"/>
+      <c r="AH72" s="16"/>
+      <c r="AI72" s="16"/>
+      <c r="AJ72" s="16"/>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="16"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="17"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="Z73" s="44"/>
+      <c r="AA73" s="45"/>
+      <c r="AB73" s="45"/>
+      <c r="AE73" s="16"/>
+      <c r="AF73" s="16"/>
+      <c r="AG73" s="16"/>
+      <c r="AH73" s="16"/>
+      <c r="AI73" s="16"/>
+      <c r="AJ73" s="16"/>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="16"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="17"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="Z74" s="44"/>
+      <c r="AA74" s="45"/>
+      <c r="AB74" s="45"/>
+      <c r="AE74" s="16"/>
+      <c r="AF74" s="16"/>
+      <c r="AG74" s="16"/>
+      <c r="AH74" s="16"/>
+      <c r="AI74" s="16"/>
+      <c r="AJ74" s="16"/>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="16"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="17"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="Z75" s="44"/>
+      <c r="AA75" s="45"/>
+      <c r="AB75" s="45"/>
+      <c r="AE75" s="16"/>
+      <c r="AF75" s="16"/>
+      <c r="AG75" s="16"/>
+      <c r="AH75" s="16"/>
+      <c r="AI75" s="16"/>
+      <c r="AJ75" s="16"/>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="16"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="17"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="Z76" s="44"/>
+      <c r="AA76" s="45"/>
+      <c r="AB76" s="45"/>
+      <c r="AE76" s="16"/>
+      <c r="AF76" s="16"/>
+      <c r="AG76" s="16"/>
+      <c r="AH76" s="16"/>
+      <c r="AI76" s="16"/>
+      <c r="AJ76" s="16"/>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="16"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="17"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="Z77" s="44"/>
+      <c r="AA77" s="45"/>
+      <c r="AB77" s="45"/>
+      <c r="AE77" s="16"/>
+      <c r="AF77" s="16"/>
+      <c r="AG77" s="16"/>
+      <c r="AH77" s="16"/>
+      <c r="AI77" s="16"/>
+      <c r="AJ77" s="16"/>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="16"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="17"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="Z78" s="44"/>
+      <c r="AA78" s="45"/>
+      <c r="AB78" s="45"/>
+      <c r="AE78" s="16"/>
+      <c r="AF78" s="16"/>
+      <c r="AG78" s="16"/>
+      <c r="AH78" s="16"/>
+      <c r="AI78" s="16"/>
+      <c r="AJ78" s="16"/>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="16"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="17"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="Z79" s="16"/>
+      <c r="AA79" s="16"/>
+      <c r="AE79" s="16"/>
+      <c r="AF79" s="16"/>
+      <c r="AG79" s="16"/>
+      <c r="AH79" s="16"/>
+      <c r="AI79" s="16"/>
+      <c r="AJ79" s="16"/>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="16"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="17"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="Z80" s="16"/>
+      <c r="AA80" s="16"/>
+      <c r="AE80" s="16"/>
+      <c r="AF80" s="16"/>
+      <c r="AG80" s="16"/>
+      <c r="AH80" s="16"/>
+      <c r="AI80" s="16"/>
+      <c r="AJ80" s="16"/>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="16"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="17"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="Z81" s="16"/>
+      <c r="AA81" s="16"/>
+      <c r="AE81" s="16"/>
+      <c r="AF81" s="16"/>
+      <c r="AG81" s="16"/>
+      <c r="AH81" s="16"/>
+      <c r="AI81" s="16"/>
+      <c r="AJ81" s="16"/>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="16"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="17"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="Z82" s="16"/>
+      <c r="AA82" s="16"/>
+      <c r="AE82" s="16"/>
+      <c r="AF82" s="16"/>
+      <c r="AG82" s="16"/>
+      <c r="AH82" s="16"/>
+      <c r="AI82" s="16"/>
+      <c r="AJ82" s="16"/>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="16"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="17"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="Z83" s="16"/>
+      <c r="AA83" s="16"/>
+      <c r="AE83" s="16"/>
+      <c r="AF83" s="16"/>
+      <c r="AG83" s="16"/>
+      <c r="AH83" s="16"/>
+      <c r="AI83" s="16"/>
+      <c r="AJ83" s="16"/>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="16"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="17"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="Z84" s="16"/>
+      <c r="AA84" s="16"/>
+      <c r="AE84" s="16"/>
+      <c r="AF84" s="16"/>
+      <c r="AG84" s="16"/>
+      <c r="AH84" s="16"/>
+      <c r="AI84" s="16"/>
+      <c r="AJ84" s="16"/>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="16"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="17"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="Z85" s="16"/>
+      <c r="AA85" s="16"/>
+      <c r="AE85" s="16"/>
+      <c r="AF85" s="16"/>
+      <c r="AG85" s="16"/>
+      <c r="AH85" s="16"/>
+      <c r="AI85" s="16"/>
+      <c r="AJ85" s="16"/>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="16"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="17"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="Z86" s="16"/>
+      <c r="AA86" s="16"/>
+      <c r="AE86" s="16"/>
+      <c r="AF86" s="16"/>
+      <c r="AG86" s="16"/>
+      <c r="AH86" s="16"/>
+      <c r="AI86" s="16"/>
+      <c r="AJ86" s="16"/>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="16"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="17"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="Z87" s="16"/>
+      <c r="AA87" s="16"/>
+      <c r="AE87" s="16"/>
+      <c r="AF87" s="16"/>
+      <c r="AG87" s="16"/>
+      <c r="AH87" s="16"/>
+      <c r="AI87" s="16"/>
+      <c r="AJ87" s="16"/>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="16"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="17"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="Z88" s="16"/>
+      <c r="AA88" s="16"/>
+      <c r="AE88" s="16"/>
+      <c r="AF88" s="16"/>
+      <c r="AG88" s="16"/>
+      <c r="AH88" s="16"/>
+      <c r="AI88" s="16"/>
+      <c r="AJ88" s="16"/>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="16"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="17"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="Z89" s="16"/>
+      <c r="AA89" s="16"/>
+      <c r="AE89" s="16"/>
+      <c r="AF89" s="16"/>
+      <c r="AG89" s="16"/>
+      <c r="AH89" s="16"/>
+      <c r="AI89" s="16"/>
+      <c r="AJ89" s="16"/>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="16"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="17"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="Z90" s="16"/>
+      <c r="AA90" s="16"/>
+      <c r="AE90" s="16"/>
+      <c r="AF90" s="16"/>
+      <c r="AG90" s="16"/>
+      <c r="AH90" s="16"/>
+      <c r="AI90" s="16"/>
+      <c r="AJ90" s="16"/>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="16"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="17"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="Z91" s="16"/>
+      <c r="AA91" s="16"/>
+      <c r="AE91" s="16"/>
+      <c r="AF91" s="16"/>
+      <c r="AG91" s="16"/>
+      <c r="AH91" s="16"/>
+      <c r="AI91" s="16"/>
+      <c r="AJ91" s="16"/>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="16"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="17"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="Z92" s="16"/>
+      <c r="AA92" s="16"/>
+      <c r="AE92" s="16"/>
+      <c r="AF92" s="16"/>
+      <c r="AG92" s="16"/>
+      <c r="AH92" s="16"/>
+      <c r="AI92" s="16"/>
+      <c r="AJ92" s="16"/>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="16"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="17"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="Z93" s="16"/>
+      <c r="AA93" s="16"/>
+      <c r="AE93" s="16"/>
+      <c r="AF93" s="16"/>
+      <c r="AG93" s="16"/>
+      <c r="AH93" s="16"/>
+      <c r="AI93" s="16"/>
+      <c r="AJ93" s="16"/>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="16"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="17"/>
+      <c r="Z94" s="16"/>
+      <c r="AA94" s="16"/>
+      <c r="AE94" s="16"/>
+      <c r="AF94" s="16"/>
+      <c r="AG94" s="16"/>
+      <c r="AH94" s="16"/>
+      <c r="AI94" s="16"/>
+      <c r="AJ94" s="16"/>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="16"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="17"/>
+      <c r="Z95" s="16"/>
+      <c r="AA95" s="16"/>
+      <c r="AE95" s="16"/>
+      <c r="AF95" s="16"/>
+      <c r="AG95" s="16"/>
+      <c r="AH95" s="16"/>
+      <c r="AI95" s="16"/>
+      <c r="AJ95" s="16"/>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="16"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="17"/>
+      <c r="Z96" s="16"/>
+      <c r="AA96" s="16"/>
+      <c r="AE96" s="16"/>
+      <c r="AF96" s="16"/>
+      <c r="AG96" s="16"/>
+      <c r="AH96" s="16"/>
+      <c r="AI96" s="16"/>
+      <c r="AJ96" s="16"/>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="16"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="17"/>
+      <c r="Z97" s="16"/>
+      <c r="AA97" s="16"/>
+      <c r="AE97" s="16"/>
+      <c r="AF97" s="16"/>
+      <c r="AG97" s="16"/>
+      <c r="AH97" s="16"/>
+      <c r="AI97" s="16"/>
+      <c r="AJ97" s="16"/>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="16"/>
+      <c r="Z98" s="16"/>
+      <c r="AA98" s="16"/>
+      <c r="AE98" s="16"/>
+      <c r="AF98" s="16"/>
+      <c r="AG98" s="16"/>
+      <c r="AH98" s="16"/>
+      <c r="AI98" s="16"/>
+      <c r="AJ98" s="16"/>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="16"/>
+      <c r="Z99" s="16"/>
+      <c r="AA99" s="16"/>
+      <c r="AE99" s="16"/>
+      <c r="AF99" s="16"/>
+      <c r="AG99" s="16"/>
+      <c r="AH99" s="16"/>
+      <c r="AI99" s="16"/>
+      <c r="AJ99" s="16"/>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="16"/>
+      <c r="Z100" s="16"/>
+      <c r="AA100" s="16"/>
+      <c r="AE100" s="16"/>
+      <c r="AF100" s="16"/>
+      <c r="AG100" s="16"/>
+      <c r="AH100" s="16"/>
+      <c r="AI100" s="16"/>
+      <c r="AJ100" s="16"/>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="16"/>
+      <c r="Z101" s="16"/>
+      <c r="AA101" s="16"/>
+      <c r="AE101" s="16"/>
+      <c r="AF101" s="16"/>
+      <c r="AG101" s="16"/>
+      <c r="AH101" s="16"/>
+      <c r="AI101" s="16"/>
+      <c r="AJ101" s="16"/>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="16"/>
+      <c r="Z102" s="16"/>
+      <c r="AA102" s="16"/>
+      <c r="AE102" s="16"/>
+      <c r="AF102" s="16"/>
+      <c r="AG102" s="16"/>
+      <c r="AH102" s="16"/>
+      <c r="AI102" s="16"/>
+      <c r="AJ102" s="16"/>
+    </row>
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="16"/>
+      <c r="Z103" s="16"/>
+      <c r="AA103" s="16"/>
+      <c r="AE103" s="16"/>
+      <c r="AF103" s="16"/>
+      <c r="AG103" s="16"/>
+      <c r="AH103" s="16"/>
+      <c r="AI103" s="16"/>
+      <c r="AJ103" s="16"/>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="Z104" s="16"/>
+      <c r="AA104" s="16"/>
+      <c r="AE104" s="16"/>
+      <c r="AF104" s="16"/>
+      <c r="AG104" s="16"/>
+      <c r="AH104" s="16"/>
+      <c r="AI104" s="16"/>
+      <c r="AJ104" s="16"/>
+    </row>
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="Z105" s="16"/>
+      <c r="AA105" s="16"/>
+      <c r="AE105" s="16"/>
+      <c r="AF105" s="16"/>
+      <c r="AG105" s="16"/>
+      <c r="AH105" s="16"/>
+      <c r="AI105" s="16"/>
+      <c r="AJ105" s="16"/>
+    </row>
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="Z106" s="16"/>
+      <c r="AA106" s="16"/>
+      <c r="AE106" s="16"/>
+      <c r="AF106" s="16"/>
+      <c r="AG106" s="16"/>
+      <c r="AH106" s="16"/>
+      <c r="AI106" s="16"/>
+      <c r="AJ106" s="16"/>
+    </row>
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="Z107" s="16"/>
+      <c r="AA107" s="16"/>
+      <c r="AE107" s="16"/>
+      <c r="AF107" s="16"/>
+      <c r="AG107" s="16"/>
+      <c r="AH107" s="16"/>
+      <c r="AI107" s="16"/>
+      <c r="AJ107" s="16"/>
+    </row>
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="Z108" s="16"/>
+      <c r="AA108" s="16"/>
+      <c r="AE108" s="16"/>
+      <c r="AF108" s="16"/>
+      <c r="AG108" s="16"/>
+      <c r="AH108" s="16"/>
+      <c r="AI108" s="16"/>
+      <c r="AJ108" s="16"/>
+    </row>
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="Z109" s="16"/>
+      <c r="AA109" s="16"/>
+      <c r="AE109" s="16"/>
+      <c r="AF109" s="16"/>
+      <c r="AG109" s="16"/>
+      <c r="AH109" s="16"/>
+      <c r="AI109" s="16"/>
+      <c r="AJ109" s="16"/>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="Z110" s="16"/>
+      <c r="AA110" s="16"/>
+      <c r="AE110" s="16"/>
+      <c r="AF110" s="16"/>
+      <c r="AG110" s="16"/>
+      <c r="AH110" s="16"/>
+      <c r="AI110" s="16"/>
+      <c r="AJ110" s="16"/>
+    </row>
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="Z111" s="16"/>
+      <c r="AA111" s="16"/>
+      <c r="AE111" s="16"/>
+      <c r="AF111" s="16"/>
+      <c r="AG111" s="16"/>
+      <c r="AH111" s="16"/>
+      <c r="AI111" s="16"/>
+      <c r="AJ111" s="16"/>
+    </row>
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="Z112" s="16"/>
+      <c r="AA112" s="16"/>
+      <c r="AE112" s="16"/>
+      <c r="AF112" s="16"/>
+      <c r="AG112" s="16"/>
+      <c r="AH112" s="16"/>
+      <c r="AI112" s="16"/>
+      <c r="AJ112" s="16"/>
+    </row>
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="Z113" s="16"/>
+      <c r="AA113" s="16"/>
+      <c r="AE113" s="16"/>
+      <c r="AF113" s="16"/>
+      <c r="AG113" s="16"/>
+      <c r="AH113" s="16"/>
+      <c r="AI113" s="16"/>
+      <c r="AJ113" s="16"/>
+    </row>
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="Z114" s="16"/>
+      <c r="AA114" s="16"/>
+      <c r="AE114" s="16"/>
+      <c r="AF114" s="16"/>
+      <c r="AG114" s="16"/>
+      <c r="AH114" s="16"/>
+      <c r="AI114" s="16"/>
+      <c r="AJ114" s="16"/>
+    </row>
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="Z115" s="16"/>
+      <c r="AA115" s="16"/>
+      <c r="AE115" s="16"/>
+      <c r="AF115" s="16"/>
+      <c r="AG115" s="16"/>
+      <c r="AH115" s="16"/>
+      <c r="AI115" s="16"/>
+      <c r="AJ115" s="16"/>
+    </row>
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="Z116" s="16"/>
+      <c r="AA116" s="16"/>
+      <c r="AE116" s="16"/>
+      <c r="AF116" s="16"/>
+      <c r="AG116" s="16"/>
+      <c r="AH116" s="16"/>
+      <c r="AI116" s="16"/>
+      <c r="AJ116" s="16"/>
+    </row>
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="Z117" s="16"/>
+      <c r="AA117" s="16"/>
+      <c r="AE117" s="16"/>
+      <c r="AF117" s="16"/>
+      <c r="AG117" s="16"/>
+      <c r="AH117" s="16"/>
+      <c r="AI117" s="16"/>
+      <c r="AJ117" s="16"/>
+    </row>
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="Z118" s="16"/>
+      <c r="AA118" s="16"/>
+      <c r="AE118" s="16"/>
+      <c r="AF118" s="16"/>
+      <c r="AG118" s="16"/>
+      <c r="AH118" s="16"/>
+      <c r="AI118" s="16"/>
+      <c r="AJ118" s="16"/>
+    </row>
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="Z119" s="16"/>
+      <c r="AA119" s="16"/>
+      <c r="AE119" s="16"/>
+      <c r="AF119" s="16"/>
+      <c r="AG119" s="16"/>
+      <c r="AH119" s="16"/>
+      <c r="AI119" s="16"/>
+      <c r="AJ119" s="16"/>
+    </row>
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="Z120" s="16"/>
+      <c r="AA120" s="16"/>
+      <c r="AE120" s="16"/>
+      <c r="AF120" s="16"/>
+      <c r="AG120" s="16"/>
+      <c r="AH120" s="16"/>
+      <c r="AI120" s="16"/>
+      <c r="AJ120" s="16"/>
+    </row>
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="Z121" s="16"/>
+      <c r="AA121" s="16"/>
+      <c r="AE121" s="16"/>
+      <c r="AF121" s="16"/>
+      <c r="AG121" s="16"/>
+      <c r="AH121" s="16"/>
+      <c r="AI121" s="16"/>
+      <c r="AJ121" s="16"/>
+    </row>
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="Z122" s="16"/>
+      <c r="AA122" s="16"/>
+      <c r="AE122" s="16"/>
+      <c r="AF122" s="16"/>
+      <c r="AG122" s="16"/>
+      <c r="AH122" s="16"/>
+      <c r="AI122" s="16"/>
+      <c r="AJ122" s="16"/>
+    </row>
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="Z123" s="16"/>
+      <c r="AA123" s="16"/>
+      <c r="AE123" s="16"/>
+      <c r="AF123" s="16"/>
+      <c r="AG123" s="16"/>
+      <c r="AH123" s="16"/>
+      <c r="AI123" s="16"/>
+      <c r="AJ123" s="16"/>
+    </row>
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="Z124" s="16"/>
+      <c r="AA124" s="16"/>
+      <c r="AE124" s="16"/>
+      <c r="AF124" s="16"/>
+      <c r="AG124" s="16"/>
+      <c r="AH124" s="16"/>
+      <c r="AI124" s="16"/>
+      <c r="AJ124" s="16"/>
+    </row>
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="Z125" s="16"/>
+      <c r="AA125" s="16"/>
+      <c r="AE125" s="16"/>
+      <c r="AF125" s="16"/>
+      <c r="AG125" s="16"/>
+      <c r="AH125" s="16"/>
+      <c r="AI125" s="16"/>
+      <c r="AJ125" s="16"/>
+    </row>
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="Z126" s="16"/>
+      <c r="AA126" s="16"/>
+      <c r="AE126" s="16"/>
+      <c r="AF126" s="16"/>
+      <c r="AG126" s="16"/>
+      <c r="AH126" s="16"/>
+      <c r="AI126" s="16"/>
+      <c r="AJ126" s="16"/>
+    </row>
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="Z127" s="16"/>
+      <c r="AA127" s="16"/>
+      <c r="AE127" s="16"/>
+      <c r="AF127" s="16"/>
+      <c r="AG127" s="16"/>
+      <c r="AH127" s="16"/>
+      <c r="AI127" s="16"/>
+      <c r="AJ127" s="16"/>
+    </row>
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="Z128" s="16"/>
+      <c r="AA128" s="16"/>
+      <c r="AE128" s="16"/>
+      <c r="AF128" s="16"/>
+      <c r="AG128" s="16"/>
+      <c r="AH128" s="16"/>
+      <c r="AI128" s="16"/>
+      <c r="AJ128" s="16"/>
+    </row>
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="Z129" s="16"/>
+      <c r="AA129" s="16"/>
+      <c r="AE129" s="16"/>
+      <c r="AF129" s="16"/>
+      <c r="AG129" s="16"/>
+      <c r="AH129" s="16"/>
+      <c r="AI129" s="16"/>
+      <c r="AJ129" s="16"/>
+    </row>
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+      <c r="Z130" s="16"/>
+      <c r="AA130" s="16"/>
+      <c r="AE130" s="16"/>
+      <c r="AF130" s="16"/>
+      <c r="AG130" s="16"/>
+      <c r="AH130" s="16"/>
+      <c r="AI130" s="16"/>
+      <c r="AJ130" s="16"/>
+    </row>
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="Z131" s="16"/>
+      <c r="AA131" s="16"/>
+      <c r="AE131" s="16"/>
+      <c r="AF131" s="16"/>
+      <c r="AG131" s="16"/>
+      <c r="AH131" s="16"/>
+      <c r="AI131" s="16"/>
+      <c r="AJ131" s="16"/>
+    </row>
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="Z132" s="16"/>
+      <c r="AA132" s="16"/>
+      <c r="AE132" s="16"/>
+      <c r="AF132" s="16"/>
+      <c r="AG132" s="16"/>
+      <c r="AH132" s="16"/>
+      <c r="AI132" s="16"/>
+      <c r="AJ132" s="16"/>
+    </row>
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="Z133" s="16"/>
+      <c r="AA133" s="16"/>
+      <c r="AE133" s="16"/>
+      <c r="AF133" s="16"/>
+      <c r="AG133" s="16"/>
+      <c r="AH133" s="16"/>
+      <c r="AI133" s="16"/>
+      <c r="AJ133" s="16"/>
+    </row>
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="Z134" s="16"/>
+      <c r="AA134" s="16"/>
+      <c r="AE134" s="16"/>
+      <c r="AF134" s="16"/>
+      <c r="AG134" s="16"/>
+      <c r="AH134" s="16"/>
+      <c r="AI134" s="16"/>
+      <c r="AJ134" s="16"/>
+    </row>
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="Z135" s="16"/>
+      <c r="AA135" s="16"/>
+      <c r="AE135" s="16"/>
+      <c r="AF135" s="16"/>
+      <c r="AG135" s="16"/>
+      <c r="AH135" s="16"/>
+      <c r="AI135" s="16"/>
+      <c r="AJ135" s="16"/>
+    </row>
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="Z136" s="16"/>
+      <c r="AA136" s="16"/>
+      <c r="AE136" s="16"/>
+      <c r="AF136" s="16"/>
+      <c r="AG136" s="16"/>
+      <c r="AH136" s="16"/>
+      <c r="AI136" s="16"/>
+      <c r="AJ136" s="16"/>
+    </row>
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+      <c r="Z137" s="16"/>
+      <c r="AA137" s="16"/>
+      <c r="AE137" s="16"/>
+      <c r="AF137" s="16"/>
+      <c r="AG137" s="16"/>
+      <c r="AH137" s="16"/>
+      <c r="AI137" s="16"/>
+      <c r="AJ137" s="16"/>
+    </row>
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+      <c r="Z138" s="16"/>
+      <c r="AA138" s="16"/>
+      <c r="AE138" s="16"/>
+      <c r="AF138" s="16"/>
+      <c r="AG138" s="16"/>
+      <c r="AH138" s="16"/>
+      <c r="AI138" s="16"/>
+      <c r="AJ138" s="16"/>
+    </row>
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
+      <c r="Z139" s="16"/>
+      <c r="AA139" s="16"/>
+      <c r="AE139" s="16"/>
+      <c r="AF139" s="16"/>
+      <c r="AG139" s="16"/>
+      <c r="AH139" s="16"/>
+      <c r="AI139" s="16"/>
+      <c r="AJ139" s="16"/>
+    </row>
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
+      <c r="Z140" s="16"/>
+      <c r="AA140" s="16"/>
+      <c r="AE140" s="16"/>
+      <c r="AF140" s="16"/>
+      <c r="AG140" s="16"/>
+      <c r="AH140" s="16"/>
+      <c r="AI140" s="16"/>
+      <c r="AJ140" s="16"/>
+    </row>
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+      <c r="Z141" s="16"/>
+      <c r="AA141" s="16"/>
+      <c r="AE141" s="16"/>
+      <c r="AF141" s="16"/>
+      <c r="AG141" s="16"/>
+      <c r="AH141" s="16"/>
+      <c r="AI141" s="16"/>
+      <c r="AJ141" s="16"/>
+    </row>
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+      <c r="Z142" s="16"/>
+      <c r="AA142" s="16"/>
+      <c r="AE142" s="16"/>
+      <c r="AF142" s="16"/>
+      <c r="AG142" s="16"/>
+      <c r="AH142" s="16"/>
+      <c r="AI142" s="16"/>
+      <c r="AJ142" s="16"/>
+    </row>
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+      <c r="Z143" s="16"/>
+      <c r="AA143" s="16"/>
+      <c r="AE143" s="16"/>
+      <c r="AF143" s="16"/>
+      <c r="AG143" s="16"/>
+      <c r="AH143" s="16"/>
+      <c r="AI143" s="16"/>
+      <c r="AJ143" s="16"/>
+    </row>
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
+      <c r="Z144" s="16"/>
+      <c r="AA144" s="16"/>
+      <c r="AE144" s="16"/>
+      <c r="AF144" s="16"/>
+      <c r="AG144" s="16"/>
+      <c r="AH144" s="16"/>
+      <c r="AI144" s="16"/>
+      <c r="AJ144" s="16"/>
+    </row>
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+      <c r="Z145" s="16"/>
+      <c r="AA145" s="16"/>
+      <c r="AE145" s="16"/>
+      <c r="AF145" s="16"/>
+      <c r="AG145" s="16"/>
+      <c r="AH145" s="16"/>
+      <c r="AI145" s="16"/>
+      <c r="AJ145" s="16"/>
+    </row>
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+      <c r="Z146" s="16"/>
+      <c r="AA146" s="16"/>
+      <c r="AE146" s="16"/>
+      <c r="AF146" s="16"/>
+      <c r="AG146" s="16"/>
+      <c r="AH146" s="16"/>
+      <c r="AI146" s="16"/>
+      <c r="AJ146" s="16"/>
+    </row>
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
+      <c r="Z147" s="16"/>
+      <c r="AA147" s="16"/>
+      <c r="AE147" s="16"/>
+      <c r="AF147" s="16"/>
+      <c r="AG147" s="16"/>
+      <c r="AH147" s="16"/>
+      <c r="AI147" s="16"/>
+      <c r="AJ147" s="16"/>
+    </row>
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="16"/>
+      <c r="Z148" s="16"/>
+      <c r="AA148" s="16"/>
+      <c r="AE148" s="16"/>
+      <c r="AF148" s="16"/>
+      <c r="AG148" s="16"/>
+      <c r="AH148" s="16"/>
+      <c r="AI148" s="16"/>
+      <c r="AJ148" s="16"/>
+    </row>
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+      <c r="Z149" s="16"/>
+      <c r="AA149" s="16"/>
+      <c r="AE149" s="16"/>
+      <c r="AF149" s="16"/>
+      <c r="AG149" s="16"/>
+      <c r="AH149" s="16"/>
+      <c r="AI149" s="16"/>
+      <c r="AJ149" s="16"/>
+    </row>
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
+      <c r="Z150" s="16"/>
+      <c r="AA150" s="16"/>
+      <c r="AE150" s="16"/>
+      <c r="AF150" s="16"/>
+      <c r="AG150" s="16"/>
+      <c r="AH150" s="16"/>
+      <c r="AI150" s="16"/>
+      <c r="AJ150" s="16"/>
+    </row>
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
+      <c r="Z151" s="16"/>
+      <c r="AA151" s="16"/>
+      <c r="AE151" s="16"/>
+      <c r="AF151" s="16"/>
+      <c r="AG151" s="16"/>
+      <c r="AH151" s="16"/>
+      <c r="AI151" s="16"/>
+      <c r="AJ151" s="16"/>
+    </row>
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="16"/>
+      <c r="Z152" s="16"/>
+      <c r="AA152" s="16"/>
+      <c r="AE152" s="16"/>
+      <c r="AF152" s="16"/>
+      <c r="AG152" s="16"/>
+      <c r="AH152" s="16"/>
+      <c r="AI152" s="16"/>
+      <c r="AJ152" s="16"/>
+    </row>
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+      <c r="Z153" s="16"/>
+      <c r="AA153" s="16"/>
+      <c r="AE153" s="16"/>
+      <c r="AF153" s="16"/>
+      <c r="AG153" s="16"/>
+      <c r="AH153" s="16"/>
+      <c r="AI153" s="16"/>
+      <c r="AJ153" s="16"/>
+    </row>
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+      <c r="Z154" s="16"/>
+      <c r="AA154" s="16"/>
+      <c r="AE154" s="16"/>
+      <c r="AF154" s="16"/>
+      <c r="AG154" s="16"/>
+      <c r="AH154" s="16"/>
+      <c r="AI154" s="16"/>
+      <c r="AJ154" s="16"/>
+    </row>
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
+      <c r="Z155" s="16"/>
+      <c r="AA155" s="16"/>
+      <c r="AE155" s="16"/>
+      <c r="AF155" s="16"/>
+      <c r="AG155" s="16"/>
+      <c r="AH155" s="16"/>
+      <c r="AI155" s="16"/>
+      <c r="AJ155" s="16"/>
+    </row>
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+      <c r="Z156" s="16"/>
+      <c r="AA156" s="16"/>
+      <c r="AE156" s="16"/>
+      <c r="AF156" s="16"/>
+      <c r="AG156" s="16"/>
+      <c r="AH156" s="16"/>
+      <c r="AI156" s="16"/>
+      <c r="AJ156" s="16"/>
+    </row>
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
+      <c r="I157" s="16"/>
+      <c r="Z157" s="16"/>
+      <c r="AA157" s="16"/>
+      <c r="AE157" s="16"/>
+      <c r="AF157" s="16"/>
+      <c r="AG157" s="16"/>
+      <c r="AH157" s="16"/>
+      <c r="AI157" s="16"/>
+      <c r="AJ157" s="16"/>
+    </row>
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="16"/>
+      <c r="Z158" s="16"/>
+      <c r="AA158" s="16"/>
+      <c r="AE158" s="16"/>
+      <c r="AF158" s="16"/>
+      <c r="AG158" s="16"/>
+      <c r="AH158" s="16"/>
+      <c r="AI158" s="16"/>
+      <c r="AJ158" s="16"/>
+    </row>
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="16"/>
+      <c r="Z159" s="16"/>
+      <c r="AA159" s="16"/>
+      <c r="AE159" s="16"/>
+      <c r="AF159" s="16"/>
+      <c r="AG159" s="16"/>
+      <c r="AH159" s="16"/>
+      <c r="AI159" s="16"/>
+      <c r="AJ159" s="16"/>
+    </row>
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
+      <c r="I160" s="16"/>
+      <c r="Z160" s="16"/>
+      <c r="AA160" s="16"/>
+      <c r="AE160" s="16"/>
+      <c r="AF160" s="16"/>
+      <c r="AG160" s="16"/>
+      <c r="AH160" s="16"/>
+      <c r="AI160" s="16"/>
+      <c r="AJ160" s="16"/>
+    </row>
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="16"/>
+      <c r="Z161" s="16"/>
+      <c r="AA161" s="16"/>
+      <c r="AE161" s="16"/>
+      <c r="AF161" s="16"/>
+      <c r="AG161" s="16"/>
+      <c r="AH161" s="16"/>
+      <c r="AI161" s="16"/>
+      <c r="AJ161" s="16"/>
+    </row>
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="16"/>
+      <c r="Z162" s="16"/>
+      <c r="AA162" s="16"/>
+      <c r="AE162" s="16"/>
+      <c r="AF162" s="16"/>
+      <c r="AG162" s="16"/>
+      <c r="AH162" s="16"/>
+      <c r="AI162" s="16"/>
+      <c r="AJ162" s="16"/>
+    </row>
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
+      <c r="Z163" s="16"/>
+      <c r="AA163" s="16"/>
+      <c r="AE163" s="16"/>
+      <c r="AF163" s="16"/>
+      <c r="AG163" s="16"/>
+      <c r="AH163" s="16"/>
+      <c r="AI163" s="16"/>
+      <c r="AJ163" s="16"/>
+    </row>
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="16"/>
+      <c r="Z164" s="16"/>
+      <c r="AA164" s="16"/>
+      <c r="AE164" s="16"/>
+      <c r="AF164" s="16"/>
+      <c r="AG164" s="16"/>
+      <c r="AH164" s="16"/>
+      <c r="AI164" s="16"/>
+      <c r="AJ164" s="16"/>
+    </row>
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="16"/>
+      <c r="Z165" s="16"/>
+      <c r="AA165" s="16"/>
+      <c r="AE165" s="16"/>
+      <c r="AF165" s="16"/>
+      <c r="AG165" s="16"/>
+      <c r="AH165" s="16"/>
+      <c r="AI165" s="16"/>
+      <c r="AJ165" s="16"/>
+    </row>
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="16"/>
+      <c r="I166" s="16"/>
+      <c r="Z166" s="16"/>
+      <c r="AA166" s="16"/>
+      <c r="AE166" s="16"/>
+      <c r="AF166" s="16"/>
+      <c r="AG166" s="16"/>
+      <c r="AH166" s="16"/>
+      <c r="AI166" s="16"/>
+      <c r="AJ166" s="16"/>
+    </row>
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
+      <c r="I167" s="16"/>
+      <c r="Z167" s="16"/>
+      <c r="AA167" s="16"/>
+      <c r="AE167" s="16"/>
+      <c r="AF167" s="16"/>
+      <c r="AG167" s="16"/>
+      <c r="AH167" s="16"/>
+      <c r="AI167" s="16"/>
+      <c r="AJ167" s="16"/>
+    </row>
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="16"/>
+      <c r="I168" s="16"/>
+      <c r="Z168" s="16"/>
+      <c r="AA168" s="16"/>
+      <c r="AE168" s="16"/>
+      <c r="AF168" s="16"/>
+      <c r="AG168" s="16"/>
+      <c r="AH168" s="16"/>
+      <c r="AI168" s="16"/>
+      <c r="AJ168" s="16"/>
+    </row>
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="16"/>
+      <c r="H169" s="16"/>
+      <c r="I169" s="16"/>
+      <c r="Z169" s="16"/>
+      <c r="AA169" s="16"/>
+      <c r="AE169" s="16"/>
+      <c r="AF169" s="16"/>
+      <c r="AG169" s="16"/>
+      <c r="AH169" s="16"/>
+      <c r="AI169" s="16"/>
+      <c r="AJ169" s="16"/>
+    </row>
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="16"/>
+      <c r="I170" s="16"/>
+      <c r="Z170" s="16"/>
+      <c r="AA170" s="16"/>
+      <c r="AE170" s="16"/>
+      <c r="AF170" s="16"/>
+      <c r="AG170" s="16"/>
+      <c r="AH170" s="16"/>
+      <c r="AI170" s="16"/>
+      <c r="AJ170" s="16"/>
+    </row>
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="16"/>
+      <c r="I171" s="16"/>
+      <c r="Z171" s="16"/>
+      <c r="AA171" s="16"/>
+      <c r="AE171" s="16"/>
+      <c r="AF171" s="16"/>
+      <c r="AG171" s="16"/>
+      <c r="AH171" s="16"/>
+      <c r="AI171" s="16"/>
+      <c r="AJ171" s="16"/>
+    </row>
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
+      <c r="I172" s="16"/>
+      <c r="Z172" s="16"/>
+      <c r="AA172" s="16"/>
+      <c r="AE172" s="16"/>
+      <c r="AF172" s="16"/>
+      <c r="AG172" s="16"/>
+      <c r="AH172" s="16"/>
+      <c r="AI172" s="16"/>
+      <c r="AJ172" s="16"/>
+    </row>
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="16"/>
+      <c r="H173" s="16"/>
+      <c r="I173" s="16"/>
+      <c r="Z173" s="16"/>
+      <c r="AA173" s="16"/>
+      <c r="AE173" s="16"/>
+      <c r="AF173" s="16"/>
+      <c r="AG173" s="16"/>
+      <c r="AH173" s="16"/>
+      <c r="AI173" s="16"/>
+      <c r="AJ173" s="16"/>
+    </row>
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="16"/>
+      <c r="I174" s="16"/>
+      <c r="Z174" s="16"/>
+      <c r="AA174" s="16"/>
+      <c r="AE174" s="16"/>
+      <c r="AF174" s="16"/>
+      <c r="AG174" s="16"/>
+      <c r="AH174" s="16"/>
+      <c r="AI174" s="16"/>
+      <c r="AJ174" s="16"/>
+    </row>
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="16"/>
+      <c r="I175" s="16"/>
+      <c r="Z175" s="16"/>
+      <c r="AA175" s="16"/>
+      <c r="AE175" s="16"/>
+      <c r="AF175" s="16"/>
+      <c r="AG175" s="16"/>
+      <c r="AH175" s="16"/>
+      <c r="AI175" s="16"/>
+      <c r="AJ175" s="16"/>
+    </row>
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="16"/>
+      <c r="I176" s="16"/>
+      <c r="Z176" s="16"/>
+      <c r="AA176" s="16"/>
+      <c r="AE176" s="16"/>
+      <c r="AF176" s="16"/>
+      <c r="AG176" s="16"/>
+      <c r="AH176" s="16"/>
+      <c r="AI176" s="16"/>
+      <c r="AJ176" s="16"/>
+    </row>
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="16"/>
+      <c r="I177" s="16"/>
+      <c r="Z177" s="16"/>
+      <c r="AA177" s="16"/>
+      <c r="AE177" s="16"/>
+      <c r="AF177" s="16"/>
+      <c r="AG177" s="16"/>
+      <c r="AH177" s="16"/>
+      <c r="AI177" s="16"/>
+      <c r="AJ177" s="16"/>
+    </row>
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="16"/>
+      <c r="I178" s="16"/>
+      <c r="Z178" s="16"/>
+      <c r="AA178" s="16"/>
+      <c r="AE178" s="16"/>
+      <c r="AF178" s="16"/>
+      <c r="AG178" s="16"/>
+      <c r="AH178" s="16"/>
+      <c r="AI178" s="16"/>
+      <c r="AJ178" s="16"/>
+    </row>
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="16"/>
+      <c r="I179" s="16"/>
+      <c r="Z179" s="16"/>
+      <c r="AA179" s="16"/>
+      <c r="AE179" s="16"/>
+      <c r="AF179" s="16"/>
+      <c r="AG179" s="16"/>
+      <c r="AH179" s="16"/>
+      <c r="AI179" s="16"/>
+      <c r="AJ179" s="16"/>
+    </row>
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="16"/>
+      <c r="I180" s="16"/>
+      <c r="Z180" s="16"/>
+      <c r="AA180" s="16"/>
+      <c r="AE180" s="16"/>
+      <c r="AF180" s="16"/>
+      <c r="AG180" s="16"/>
+      <c r="AH180" s="16"/>
+      <c r="AI180" s="16"/>
+      <c r="AJ180" s="16"/>
+    </row>
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="16"/>
+      <c r="H181" s="16"/>
+      <c r="I181" s="16"/>
+      <c r="Z181" s="16"/>
+      <c r="AA181" s="16"/>
+      <c r="AE181" s="16"/>
+      <c r="AF181" s="16"/>
+      <c r="AG181" s="16"/>
+      <c r="AH181" s="16"/>
+      <c r="AI181" s="16"/>
+      <c r="AJ181" s="16"/>
+    </row>
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="16"/>
+      <c r="Z182" s="16"/>
+      <c r="AA182" s="16"/>
+      <c r="AE182" s="16"/>
+      <c r="AF182" s="16"/>
+      <c r="AG182" s="16"/>
+      <c r="AH182" s="16"/>
+      <c r="AI182" s="16"/>
+      <c r="AJ182" s="16"/>
+    </row>
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="16"/>
+      <c r="Z183" s="16"/>
+      <c r="AA183" s="16"/>
+      <c r="AE183" s="16"/>
+      <c r="AF183" s="16"/>
+      <c r="AG183" s="16"/>
+      <c r="AH183" s="16"/>
+      <c r="AI183" s="16"/>
+      <c r="AJ183" s="16"/>
+    </row>
+    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="16"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="16"/>
+      <c r="Z184" s="16"/>
+      <c r="AA184" s="16"/>
+      <c r="AE184" s="16"/>
+      <c r="AF184" s="16"/>
+      <c r="AG184" s="16"/>
+      <c r="AH184" s="16"/>
+      <c r="AI184" s="16"/>
+      <c r="AJ184" s="16"/>
+    </row>
+    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="16"/>
+      <c r="I185" s="16"/>
+      <c r="Z185" s="16"/>
+      <c r="AA185" s="16"/>
+      <c r="AE185" s="16"/>
+      <c r="AF185" s="16"/>
+      <c r="AG185" s="16"/>
+      <c r="AH185" s="16"/>
+      <c r="AI185" s="16"/>
+      <c r="AJ185" s="16"/>
+    </row>
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="F186" s="21"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="16"/>
+      <c r="I186" s="16"/>
+      <c r="Z186" s="16"/>
+      <c r="AA186" s="16"/>
+      <c r="AE186" s="16"/>
+      <c r="AF186" s="16"/>
+      <c r="AG186" s="16"/>
+      <c r="AH186" s="16"/>
+      <c r="AI186" s="16"/>
+      <c r="AJ186" s="16"/>
+    </row>
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="16"/>
+      <c r="I187" s="16"/>
+      <c r="Z187" s="16"/>
+      <c r="AA187" s="16"/>
+      <c r="AE187" s="16"/>
+      <c r="AF187" s="16"/>
+      <c r="AG187" s="16"/>
+      <c r="AH187" s="16"/>
+      <c r="AI187" s="16"/>
+      <c r="AJ187" s="16"/>
+    </row>
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="16"/>
+      <c r="I188" s="16"/>
+      <c r="Z188" s="16"/>
+      <c r="AA188" s="16"/>
+      <c r="AE188" s="16"/>
+      <c r="AF188" s="16"/>
+      <c r="AG188" s="16"/>
+      <c r="AH188" s="16"/>
+      <c r="AI188" s="16"/>
+      <c r="AJ188" s="16"/>
+    </row>
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="16"/>
+      <c r="I189" s="16"/>
+      <c r="Z189" s="16"/>
+      <c r="AA189" s="16"/>
+      <c r="AE189" s="16"/>
+      <c r="AF189" s="16"/>
+      <c r="AG189" s="16"/>
+      <c r="AH189" s="16"/>
+      <c r="AI189" s="16"/>
+      <c r="AJ189" s="16"/>
+    </row>
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="16"/>
+      <c r="I190" s="16"/>
+      <c r="Z190" s="16"/>
+      <c r="AA190" s="16"/>
+      <c r="AE190" s="16"/>
+      <c r="AF190" s="16"/>
+      <c r="AG190" s="16"/>
+      <c r="AH190" s="16"/>
+      <c r="AI190" s="16"/>
+      <c r="AJ190" s="16"/>
+    </row>
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="16"/>
+      <c r="H191" s="16"/>
+      <c r="I191" s="16"/>
+      <c r="Z191" s="16"/>
+      <c r="AA191" s="16"/>
+      <c r="AE191" s="16"/>
+      <c r="AF191" s="16"/>
+      <c r="AG191" s="16"/>
+      <c r="AH191" s="16"/>
+      <c r="AI191" s="16"/>
+      <c r="AJ191" s="16"/>
+    </row>
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="16"/>
+      <c r="H192" s="16"/>
+      <c r="I192" s="16"/>
+      <c r="Z192" s="16"/>
+      <c r="AA192" s="16"/>
+      <c r="AE192" s="16"/>
+      <c r="AF192" s="16"/>
+      <c r="AG192" s="16"/>
+      <c r="AH192" s="16"/>
+      <c r="AI192" s="16"/>
+      <c r="AJ192" s="16"/>
+    </row>
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="16"/>
+      <c r="H193" s="16"/>
+      <c r="I193" s="16"/>
+      <c r="Z193" s="16"/>
+      <c r="AA193" s="16"/>
+      <c r="AE193" s="16"/>
+      <c r="AF193" s="16"/>
+      <c r="AG193" s="16"/>
+      <c r="AH193" s="16"/>
+      <c r="AI193" s="16"/>
+      <c r="AJ193" s="16"/>
+    </row>
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="16"/>
+      <c r="H194" s="16"/>
+      <c r="I194" s="16"/>
+      <c r="Z194" s="16"/>
+      <c r="AA194" s="16"/>
+      <c r="AE194" s="16"/>
+      <c r="AF194" s="16"/>
+      <c r="AG194" s="16"/>
+      <c r="AH194" s="16"/>
+      <c r="AI194" s="16"/>
+      <c r="AJ194" s="16"/>
+    </row>
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="16"/>
+      <c r="I195" s="16"/>
+      <c r="Z195" s="16"/>
+      <c r="AA195" s="16"/>
+      <c r="AE195" s="16"/>
+      <c r="AF195" s="16"/>
+      <c r="AG195" s="16"/>
+      <c r="AH195" s="16"/>
+      <c r="AI195" s="16"/>
+      <c r="AJ195" s="16"/>
+    </row>
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="16"/>
+      <c r="H196" s="16"/>
+      <c r="I196" s="16"/>
+      <c r="Z196" s="16"/>
+      <c r="AA196" s="16"/>
+      <c r="AE196" s="16"/>
+      <c r="AF196" s="16"/>
+      <c r="AG196" s="16"/>
+      <c r="AH196" s="16"/>
+      <c r="AI196" s="16"/>
+      <c r="AJ196" s="16"/>
+    </row>
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="16"/>
+      <c r="I197" s="16"/>
+      <c r="Z197" s="16"/>
+      <c r="AA197" s="16"/>
+      <c r="AE197" s="16"/>
+      <c r="AF197" s="16"/>
+      <c r="AG197" s="16"/>
+      <c r="AH197" s="16"/>
+      <c r="AI197" s="16"/>
+      <c r="AJ197" s="16"/>
+    </row>
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="16"/>
+      <c r="H198" s="16"/>
+      <c r="I198" s="16"/>
+      <c r="Z198" s="16"/>
+      <c r="AA198" s="16"/>
+      <c r="AE198" s="16"/>
+      <c r="AF198" s="16"/>
+      <c r="AG198" s="16"/>
+      <c r="AH198" s="16"/>
+      <c r="AI198" s="16"/>
+      <c r="AJ198" s="16"/>
+    </row>
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="16"/>
+      <c r="H199" s="16"/>
+      <c r="I199" s="16"/>
+      <c r="Z199" s="16"/>
+      <c r="AA199" s="16"/>
+      <c r="AE199" s="16"/>
+      <c r="AF199" s="16"/>
+      <c r="AG199" s="16"/>
+      <c r="AH199" s="16"/>
+      <c r="AI199" s="16"/>
+      <c r="AJ199" s="16"/>
+    </row>
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="16"/>
+      <c r="H200" s="16"/>
+      <c r="I200" s="16"/>
+      <c r="Z200" s="16"/>
+      <c r="AA200" s="16"/>
+      <c r="AE200" s="16"/>
+      <c r="AF200" s="16"/>
+      <c r="AG200" s="16"/>
+      <c r="AH200" s="16"/>
+      <c r="AI200" s="16"/>
+      <c r="AJ200" s="16"/>
+    </row>
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="16"/>
+      <c r="H201" s="16"/>
+      <c r="I201" s="16"/>
+      <c r="Z201" s="16"/>
+      <c r="AA201" s="16"/>
+      <c r="AE201" s="16"/>
+      <c r="AF201" s="16"/>
+      <c r="AG201" s="16"/>
+      <c r="AH201" s="16"/>
+      <c r="AI201" s="16"/>
+      <c r="AJ201" s="16"/>
+    </row>
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="16"/>
+      <c r="H202" s="16"/>
+      <c r="I202" s="16"/>
+      <c r="Z202" s="16"/>
+      <c r="AA202" s="16"/>
+      <c r="AE202" s="16"/>
+      <c r="AF202" s="16"/>
+      <c r="AG202" s="16"/>
+      <c r="AH202" s="16"/>
+      <c r="AI202" s="16"/>
+      <c r="AJ202" s="16"/>
+    </row>
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="16"/>
+      <c r="H203" s="16"/>
+      <c r="I203" s="16"/>
+      <c r="Z203" s="16"/>
+      <c r="AA203" s="16"/>
+      <c r="AE203" s="16"/>
+      <c r="AF203" s="16"/>
+      <c r="AG203" s="16"/>
+      <c r="AH203" s="16"/>
+      <c r="AI203" s="16"/>
+      <c r="AJ203" s="16"/>
+    </row>
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="16"/>
+      <c r="I204" s="16"/>
+      <c r="Z204" s="16"/>
+      <c r="AA204" s="16"/>
+      <c r="AE204" s="16"/>
+      <c r="AF204" s="16"/>
+      <c r="AG204" s="16"/>
+      <c r="AH204" s="16"/>
+      <c r="AI204" s="16"/>
+      <c r="AJ204" s="16"/>
+    </row>
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A205" s="10"/>
+      <c r="B205" s="10"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="16"/>
+      <c r="I205" s="16"/>
+      <c r="Z205" s="16"/>
+      <c r="AA205" s="16"/>
+      <c r="AE205" s="16"/>
+      <c r="AF205" s="16"/>
+      <c r="AG205" s="16"/>
+      <c r="AH205" s="16"/>
+      <c r="AI205" s="16"/>
+      <c r="AJ205" s="16"/>
+    </row>
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="16"/>
+      <c r="H206" s="16"/>
+      <c r="I206" s="16"/>
+      <c r="Z206" s="16"/>
+      <c r="AA206" s="16"/>
+      <c r="AE206" s="16"/>
+      <c r="AF206" s="16"/>
+      <c r="AG206" s="16"/>
+      <c r="AH206" s="16"/>
+      <c r="AI206" s="16"/>
+      <c r="AJ206" s="16"/>
+    </row>
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="16"/>
+      <c r="H207" s="16"/>
+      <c r="I207" s="16"/>
+      <c r="Z207" s="16"/>
+      <c r="AA207" s="16"/>
+      <c r="AE207" s="16"/>
+      <c r="AF207" s="16"/>
+      <c r="AG207" s="16"/>
+      <c r="AH207" s="16"/>
+      <c r="AI207" s="16"/>
+      <c r="AJ207" s="16"/>
+    </row>
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="16"/>
+      <c r="H208" s="16"/>
+      <c r="I208" s="16"/>
+      <c r="Z208" s="16"/>
+      <c r="AA208" s="16"/>
+      <c r="AE208" s="16"/>
+      <c r="AF208" s="16"/>
+      <c r="AG208" s="16"/>
+      <c r="AH208" s="16"/>
+      <c r="AI208" s="16"/>
+      <c r="AJ208" s="16"/>
+    </row>
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="16"/>
+      <c r="H209" s="16"/>
+      <c r="I209" s="16"/>
+      <c r="Z209" s="16"/>
+      <c r="AA209" s="16"/>
+      <c r="AE209" s="16"/>
+      <c r="AF209" s="16"/>
+      <c r="AG209" s="16"/>
+      <c r="AH209" s="16"/>
+      <c r="AI209" s="16"/>
+      <c r="AJ209" s="16"/>
+    </row>
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="16"/>
+      <c r="H210" s="16"/>
+      <c r="I210" s="16"/>
+      <c r="Z210" s="16"/>
+      <c r="AA210" s="16"/>
+      <c r="AE210" s="16"/>
+      <c r="AF210" s="16"/>
+      <c r="AG210" s="16"/>
+      <c r="AH210" s="16"/>
+      <c r="AI210" s="16"/>
+      <c r="AJ210" s="16"/>
+    </row>
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="16"/>
+      <c r="H211" s="16"/>
+      <c r="I211" s="16"/>
+      <c r="Z211" s="16"/>
+      <c r="AA211" s="16"/>
+      <c r="AE211" s="16"/>
+      <c r="AF211" s="16"/>
+      <c r="AG211" s="16"/>
+      <c r="AH211" s="16"/>
+      <c r="AI211" s="16"/>
+      <c r="AJ211" s="16"/>
+    </row>
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="16"/>
+      <c r="H212" s="16"/>
+      <c r="I212" s="16"/>
+      <c r="Z212" s="16"/>
+      <c r="AA212" s="16"/>
+      <c r="AE212" s="16"/>
+      <c r="AF212" s="16"/>
+      <c r="AG212" s="16"/>
+      <c r="AH212" s="16"/>
+      <c r="AI212" s="16"/>
+      <c r="AJ212" s="16"/>
+    </row>
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
+      <c r="D213" s="22"/>
+      <c r="F213" s="15"/>
+      <c r="G213" s="16"/>
+      <c r="H213" s="16"/>
+      <c r="I213" s="16"/>
+      <c r="Z213" s="16"/>
+      <c r="AA213" s="16"/>
+      <c r="AE213" s="16"/>
+      <c r="AF213" s="16"/>
+      <c r="AG213" s="16"/>
+      <c r="AH213" s="16"/>
+      <c r="AI213" s="16"/>
+      <c r="AJ213" s="16"/>
+    </row>
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="D214" s="22"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="16"/>
+      <c r="H214" s="16"/>
+      <c r="I214" s="16"/>
+      <c r="Z214" s="16"/>
+      <c r="AA214" s="16"/>
+      <c r="AE214" s="16"/>
+      <c r="AF214" s="16"/>
+      <c r="AG214" s="16"/>
+      <c r="AH214" s="16"/>
+      <c r="AI214" s="16"/>
+      <c r="AJ214" s="16"/>
+    </row>
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
+      <c r="F215" s="15"/>
+      <c r="G215" s="16"/>
+      <c r="H215" s="16"/>
+      <c r="I215" s="16"/>
+      <c r="Z215" s="16"/>
+      <c r="AA215" s="16"/>
+      <c r="AE215" s="16"/>
+      <c r="AF215" s="16"/>
+      <c r="AG215" s="16"/>
+      <c r="AH215" s="16"/>
+      <c r="AI215" s="16"/>
+      <c r="AJ215" s="16"/>
+    </row>
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="F216" s="15"/>
+      <c r="G216" s="16"/>
+      <c r="H216" s="16"/>
+      <c r="I216" s="16"/>
+      <c r="Z216" s="16"/>
+      <c r="AA216" s="16"/>
+      <c r="AE216" s="16"/>
+      <c r="AF216" s="16"/>
+      <c r="AG216" s="16"/>
+      <c r="AH216" s="16"/>
+      <c r="AI216" s="16"/>
+      <c r="AJ216" s="16"/>
+    </row>
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="16"/>
+      <c r="H217" s="16"/>
+      <c r="I217" s="16"/>
+      <c r="Z217" s="16"/>
+      <c r="AA217" s="16"/>
+      <c r="AE217" s="16"/>
+      <c r="AF217" s="16"/>
+      <c r="AG217" s="16"/>
+      <c r="AH217" s="16"/>
+      <c r="AI217" s="16"/>
+      <c r="AJ217" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AAED65-5FAB-44C5-A698-4D67DE51204B}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="6" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="50"/>
+      <c r="B1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9810,6 +18370,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082065238E2B0B64CB2D3E9C4A77EE270" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="25f91677b1d1e718fa7702f359910c09">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca29676e-146f-4992-a625-6e1448ec12fb" xmlns:ns3="bcdf09f0-c0f3-4536-9075-519f9a5911b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1bf40040fdbc9a7f845833869f6e8f08" ns2:_="" ns3:_="">
     <xsd:import namespace="ca29676e-146f-4992-a625-6e1448ec12fb"/>
@@ -10034,15 +18603,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7517FDB9-EC00-416B-9C34-B72149EE0DDC}">
   <ds:schemaRefs>
@@ -10055,6 +18615,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DA17F1-8310-471B-B996-F69FB4AF26D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BA0EEAC-AB5D-46FC-8EC9-376B91CACA31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10071,12 +18639,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DA17F1-8310-471B-B996-F69FB4AF26D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>